--- a/etl_processor/data_source/energy/ElectricityGenerationMonthlyData.xlsx
+++ b/etl_processor/data_source/energy/ElectricityGenerationMonthlyData.xlsx
@@ -1,10 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10714"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516B0FED-3E57-F344-9165-50C79ACCFE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="M890831" state="visible" r:id="rId4"/>
+    <sheet name="M890831" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -1867,21 +1871,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,0.##########"/>
-    <numFmt numFmtId="165" formatCode="#,0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.##########"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1901,10 +1907,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1924,7 +1938,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2265,14 +2279,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:VT31"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:VT30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="592" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:592" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:592" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4050,3679 +4069,3700 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:592" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:592" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:592" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:592" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:592" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:592" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="592:592" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:592" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="VT10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:592" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:592" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:592" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:592" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:592" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:592" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:592" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:592" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="18" spans="1:592" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:592" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>609</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:592" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="21" spans="1:592" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:592" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="23" spans="1:592" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:592" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="26" spans="1:592" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="27" spans="1:592" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="29" spans="1:592" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Y11" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Z11" s="3" t="s">
+      <c r="Z29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AA11" s="3" t="s">
+      <c r="AA29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AB11" s="3" t="s">
+      <c r="AB29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AC11" s="3" t="s">
+      <c r="AC29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AD11" s="3" t="s">
+      <c r="AD29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AE11" s="3" t="s">
+      <c r="AE29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AF11" s="3" t="s">
+      <c r="AF29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AG11" s="3" t="s">
+      <c r="AG29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AH11" s="3" t="s">
+      <c r="AH29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AI11" s="3" t="s">
+      <c r="AI29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AJ11" s="3" t="s">
+      <c r="AJ29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AK11" s="3" t="s">
+      <c r="AK29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AL11" s="3" t="s">
+      <c r="AL29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AM11" s="3" t="s">
+      <c r="AM29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AN11" s="3" t="s">
+      <c r="AN29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AO11" s="3" t="s">
+      <c r="AO29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AP11" s="3" t="s">
+      <c r="AP29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AQ11" s="3" t="s">
+      <c r="AQ29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AR11" s="3" t="s">
+      <c r="AR29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AS11" s="3" t="s">
+      <c r="AS29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AT11" s="3" t="s">
+      <c r="AT29" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AU11" s="3" t="s">
+      <c r="AU29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AV11" s="3" t="s">
+      <c r="AV29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AW11" s="3" t="s">
+      <c r="AW29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AX11" s="3" t="s">
+      <c r="AX29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AY11" s="3" t="s">
+      <c r="AY29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AZ11" s="3" t="s">
+      <c r="AZ29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BA11" s="3" t="s">
+      <c r="BA29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BB11" s="3" t="s">
+      <c r="BB29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BC11" s="3" t="s">
+      <c r="BC29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BD11" s="3" t="s">
+      <c r="BD29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BE11" s="3" t="s">
+      <c r="BE29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BF11" s="3" t="s">
+      <c r="BF29" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BG11" s="3" t="s">
+      <c r="BG29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BH11" s="3" t="s">
+      <c r="BH29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BI11" s="3" t="s">
+      <c r="BI29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BJ11" s="3" t="s">
+      <c r="BJ29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BK11" s="3" t="s">
+      <c r="BK29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BL11" s="3" t="s">
+      <c r="BL29" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BM11" s="3" t="s">
+      <c r="BM29" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BN11" s="3" t="s">
+      <c r="BN29" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BO11" s="3" t="s">
+      <c r="BO29" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BP11" s="3" t="s">
+      <c r="BP29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BQ11" s="3" t="s">
+      <c r="BQ29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BR11" s="3" t="s">
+      <c r="BR29" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="BS11" s="3" t="s">
+      <c r="BS29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="BT11" s="3" t="s">
+      <c r="BT29" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="BU11" s="3" t="s">
+      <c r="BU29" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="BV11" s="3" t="s">
+      <c r="BV29" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="BW11" s="3" t="s">
+      <c r="BW29" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="BX11" s="3" t="s">
+      <c r="BX29" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="BY11" s="3" t="s">
+      <c r="BY29" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BZ11" s="3" t="s">
+      <c r="BZ29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="CA11" s="3" t="s">
+      <c r="CA29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="CB11" s="3" t="s">
+      <c r="CB29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="CC11" s="3" t="s">
+      <c r="CC29" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="CD11" s="3" t="s">
+      <c r="CD29" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="CE11" s="3" t="s">
+      <c r="CE29" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="CF11" s="3" t="s">
+      <c r="CF29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="CG11" s="3" t="s">
+      <c r="CG29" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="CH11" s="3" t="s">
+      <c r="CH29" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="CI11" s="3" t="s">
+      <c r="CI29" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="CJ11" s="3" t="s">
+      <c r="CJ29" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="CK11" s="3" t="s">
+      <c r="CK29" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="CL11" s="3" t="s">
+      <c r="CL29" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="CM11" s="3" t="s">
+      <c r="CM29" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="CN11" s="3" t="s">
+      <c r="CN29" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="CO11" s="3" t="s">
+      <c r="CO29" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="CP11" s="3" t="s">
+      <c r="CP29" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="CQ11" s="3" t="s">
+      <c r="CQ29" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="CR11" s="3" t="s">
+      <c r="CR29" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="CS11" s="3" t="s">
+      <c r="CS29" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="CT11" s="3" t="s">
+      <c r="CT29" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="CU11" s="3" t="s">
+      <c r="CU29" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="CV11" s="3" t="s">
+      <c r="CV29" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="CW11" s="3" t="s">
+      <c r="CW29" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="CX11" s="3" t="s">
+      <c r="CX29" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="CY11" s="3" t="s">
+      <c r="CY29" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="CZ11" s="3" t="s">
+      <c r="CZ29" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="DA11" s="3" t="s">
+      <c r="DA29" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="DB11" s="3" t="s">
+      <c r="DB29" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="DC11" s="3" t="s">
+      <c r="DC29" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="DD11" s="3" t="s">
+      <c r="DD29" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="DE11" s="3" t="s">
+      <c r="DE29" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="DF11" s="3" t="s">
+      <c r="DF29" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="DG11" s="3" t="s">
+      <c r="DG29" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="DH11" s="3" t="s">
+      <c r="DH29" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="DI11" s="3" t="s">
+      <c r="DI29" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="DJ11" s="3" t="s">
+      <c r="DJ29" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="DK11" s="3" t="s">
+      <c r="DK29" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="DL11" s="3" t="s">
+      <c r="DL29" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="DM11" s="3" t="s">
+      <c r="DM29" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="DN11" s="3" t="s">
+      <c r="DN29" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="DO11" s="3" t="s">
+      <c r="DO29" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="DP11" s="3" t="s">
+      <c r="DP29" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="DQ11" s="3" t="s">
+      <c r="DQ29" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="DR11" s="3" t="s">
+      <c r="DR29" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="DS11" s="3" t="s">
+      <c r="DS29" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="DT11" s="3" t="s">
+      <c r="DT29" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="DU11" s="3" t="s">
+      <c r="DU29" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="DV11" s="3" t="s">
+      <c r="DV29" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="DW11" s="3" t="s">
+      <c r="DW29" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="DX11" s="3" t="s">
+      <c r="DX29" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="DY11" s="3" t="s">
+      <c r="DY29" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="DZ11" s="3" t="s">
+      <c r="DZ29" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="EA11" s="3" t="s">
+      <c r="EA29" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="EB11" s="3" t="s">
+      <c r="EB29" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="EC11" s="3" t="s">
+      <c r="EC29" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="ED11" s="3" t="s">
+      <c r="ED29" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="EE11" s="3" t="s">
+      <c r="EE29" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="EF11" s="3" t="s">
+      <c r="EF29" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="EG11" s="3" t="s">
+      <c r="EG29" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="EH11" s="3" t="s">
+      <c r="EH29" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="EI11" s="3" t="s">
+      <c r="EI29" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="EJ11" s="3" t="s">
+      <c r="EJ29" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="EK11" s="3" t="s">
+      <c r="EK29" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="EL11" s="3" t="s">
+      <c r="EL29" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="EM11" s="3" t="s">
+      <c r="EM29" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="EN11" s="3" t="s">
+      <c r="EN29" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="EO11" s="3" t="s">
+      <c r="EO29" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="EP11" s="3" t="s">
+      <c r="EP29" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="EQ11" s="3" t="s">
+      <c r="EQ29" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="ER11" s="3" t="s">
+      <c r="ER29" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="ES11" s="3" t="s">
+      <c r="ES29" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="ET11" s="3" t="s">
+      <c r="ET29" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="EU11" s="3" t="s">
+      <c r="EU29" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="EV11" s="3" t="s">
+      <c r="EV29" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="EW11" s="3" t="s">
+      <c r="EW29" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="EX11" s="3" t="s">
+      <c r="EX29" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="EY11" s="3" t="s">
+      <c r="EY29" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="EZ11" s="3" t="s">
+      <c r="EZ29" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="FA11" s="3" t="s">
+      <c r="FA29" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="FB11" s="3" t="s">
+      <c r="FB29" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="FC11" s="3" t="s">
+      <c r="FC29" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="FD11" s="3" t="s">
+      <c r="FD29" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="FE11" s="3" t="s">
+      <c r="FE29" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="FF11" s="3" t="s">
+      <c r="FF29" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="FG11" s="3" t="s">
+      <c r="FG29" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="FH11" s="3" t="s">
+      <c r="FH29" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="FI11" s="3" t="s">
+      <c r="FI29" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="FJ11" s="3" t="s">
+      <c r="FJ29" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="FK11" s="3" t="s">
+      <c r="FK29" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="FL11" s="3" t="s">
+      <c r="FL29" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="FM11" s="3" t="s">
+      <c r="FM29" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="FN11" s="3" t="s">
+      <c r="FN29" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="FO11" s="3" t="s">
+      <c r="FO29" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="FP11" s="3" t="s">
+      <c r="FP29" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="FQ11" s="3" t="s">
+      <c r="FQ29" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="FR11" s="3" t="s">
+      <c r="FR29" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="FS11" s="3" t="s">
+      <c r="FS29" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="FT11" s="3" t="s">
+      <c r="FT29" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="FU11" s="3" t="s">
+      <c r="FU29" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="FV11" s="3" t="s">
+      <c r="FV29" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="FW11" s="3" t="s">
+      <c r="FW29" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="FX11" s="3" t="s">
+      <c r="FX29" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="FY11" s="3" t="s">
+      <c r="FY29" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="FZ11" s="3" t="s">
+      <c r="FZ29" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="GA11" s="3" t="s">
+      <c r="GA29" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="GB11" s="3" t="s">
+      <c r="GB29" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="GC11" s="3" t="s">
+      <c r="GC29" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="GD11" s="3" t="s">
+      <c r="GD29" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="GE11" s="3" t="s">
+      <c r="GE29" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="GF11" s="3" t="s">
+      <c r="GF29" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="GG11" s="3" t="s">
+      <c r="GG29" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="GH11" s="3" t="s">
+      <c r="GH29" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="GI11" s="3" t="s">
+      <c r="GI29" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="GJ11" s="3" t="s">
+      <c r="GJ29" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="GK11" s="3" t="s">
+      <c r="GK29" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="GL11" s="3" t="s">
+      <c r="GL29" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="GM11" s="3" t="s">
+      <c r="GM29" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="GN11" s="3" t="s">
+      <c r="GN29" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="GO11" s="3" t="s">
+      <c r="GO29" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="GP11" s="3" t="s">
+      <c r="GP29" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="GQ11" s="3" t="s">
+      <c r="GQ29" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="GR11" s="3" t="s">
+      <c r="GR29" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="GS11" s="3" t="s">
+      <c r="GS29" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="GT11" s="3" t="s">
+      <c r="GT29" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="GU11" s="3" t="s">
+      <c r="GU29" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="GV11" s="3" t="s">
+      <c r="GV29" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="GW11" s="3" t="s">
+      <c r="GW29" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="GX11" s="3" t="s">
+      <c r="GX29" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="GY11" s="3" t="s">
+      <c r="GY29" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="GZ11" s="3" t="s">
+      <c r="GZ29" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="HA11" s="3" t="s">
+      <c r="HA29" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="HB11" s="3" t="s">
+      <c r="HB29" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="HC11" s="3" t="s">
+      <c r="HC29" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="HD11" s="3" t="s">
+      <c r="HD29" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="HE11" s="3" t="s">
+      <c r="HE29" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="HF11" s="3" t="s">
+      <c r="HF29" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="HG11" s="3" t="s">
+      <c r="HG29" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="HH11" s="3" t="s">
+      <c r="HH29" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="HI11" s="3" t="s">
+      <c r="HI29" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="HJ11" s="3" t="s">
+      <c r="HJ29" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="HK11" s="3" t="s">
+      <c r="HK29" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="HL11" s="3" t="s">
+      <c r="HL29" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="HM11" s="3" t="s">
+      <c r="HM29" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="HN11" s="3" t="s">
+      <c r="HN29" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="HO11" s="3" t="s">
+      <c r="HO29" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="HP11" s="3" t="s">
+      <c r="HP29" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="HQ11" s="3" t="s">
+      <c r="HQ29" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="HR11" s="3" t="s">
+      <c r="HR29" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="HS11" s="3" t="s">
+      <c r="HS29" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="HT11" s="3" t="s">
+      <c r="HT29" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="HU11" s="3" t="s">
+      <c r="HU29" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="HV11" s="3" t="s">
+      <c r="HV29" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="HW11" s="3" t="s">
+      <c r="HW29" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="HX11" s="3" t="s">
+      <c r="HX29" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="HY11" s="3" t="s">
+      <c r="HY29" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="HZ11" s="3" t="s">
+      <c r="HZ29" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="IA11" s="3" t="s">
+      <c r="IA29" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="IB11" s="3" t="s">
+      <c r="IB29" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="IC11" s="3" t="s">
+      <c r="IC29" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="ID11" s="3" t="s">
+      <c r="ID29" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="IE11" s="3" t="s">
+      <c r="IE29" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="IF11" s="3" t="s">
+      <c r="IF29" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="IG11" s="3" t="s">
+      <c r="IG29" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="IH11" s="3" t="s">
+      <c r="IH29" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="II11" s="3" t="s">
+      <c r="II29" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="IJ11" s="3" t="s">
+      <c r="IJ29" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="IK11" s="3" t="s">
+      <c r="IK29" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="IL11" s="3" t="s">
+      <c r="IL29" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="IM11" s="3" t="s">
+      <c r="IM29" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="IN11" s="3" t="s">
+      <c r="IN29" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="IO11" s="3" t="s">
+      <c r="IO29" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="IP11" s="3" t="s">
+      <c r="IP29" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="IQ11" s="3" t="s">
+      <c r="IQ29" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="IR11" s="3" t="s">
+      <c r="IR29" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="IS11" s="3" t="s">
+      <c r="IS29" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="IT11" s="3" t="s">
+      <c r="IT29" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="IU11" s="3" t="s">
+      <c r="IU29" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="IV11" s="3" t="s">
+      <c r="IV29" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="IW11" s="3" t="s">
+      <c r="IW29" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="IX11" s="3" t="s">
+      <c r="IX29" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="IY11" s="3" t="s">
+      <c r="IY29" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="IZ11" s="3" t="s">
+      <c r="IZ29" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="JA11" s="3" t="s">
+      <c r="JA29" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="JB11" s="3" t="s">
+      <c r="JB29" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="JC11" s="3" t="s">
+      <c r="JC29" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="JD11" s="3" t="s">
+      <c r="JD29" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="JE11" s="3" t="s">
+      <c r="JE29" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="JF11" s="3" t="s">
+      <c r="JF29" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="JG11" s="3" t="s">
+      <c r="JG29" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="JH11" s="3" t="s">
+      <c r="JH29" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="JI11" s="3" t="s">
+      <c r="JI29" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="JJ11" s="3" t="s">
+      <c r="JJ29" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="JK11" s="3" t="s">
+      <c r="JK29" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="JL11" s="3" t="s">
+      <c r="JL29" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="JM11" s="3" t="s">
+      <c r="JM29" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="JN11" s="3" t="s">
+      <c r="JN29" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="JO11" s="3" t="s">
+      <c r="JO29" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="JP11" s="3" t="s">
+      <c r="JP29" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="JQ11" s="3" t="s">
+      <c r="JQ29" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="JR11" s="3" t="s">
+      <c r="JR29" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="JS11" s="3" t="s">
+      <c r="JS29" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="JT11" s="3" t="s">
+      <c r="JT29" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="JU11" s="3" t="s">
+      <c r="JU29" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="JV11" s="3" t="s">
+      <c r="JV29" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="JW11" s="3" t="s">
+      <c r="JW29" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="JX11" s="3" t="s">
+      <c r="JX29" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="JY11" s="3" t="s">
+      <c r="JY29" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="JZ11" s="3" t="s">
+      <c r="JZ29" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="KA11" s="3" t="s">
+      <c r="KA29" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="KB11" s="3" t="s">
+      <c r="KB29" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="KC11" s="3" t="s">
+      <c r="KC29" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="KD11" s="3" t="s">
+      <c r="KD29" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="KE11" s="3" t="s">
+      <c r="KE29" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="KF11" s="3" t="s">
+      <c r="KF29" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="KG11" s="3" t="s">
+      <c r="KG29" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="KH11" s="3" t="s">
+      <c r="KH29" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="KI11" s="3" t="s">
+      <c r="KI29" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="KJ11" s="3" t="s">
+      <c r="KJ29" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="KK11" s="3" t="s">
+      <c r="KK29" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="KL11" s="3" t="s">
+      <c r="KL29" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="KM11" s="3" t="s">
+      <c r="KM29" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="KN11" s="3" t="s">
+      <c r="KN29" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="KO11" s="3" t="s">
+      <c r="KO29" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="KP11" s="3" t="s">
+      <c r="KP29" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="KQ11" s="3" t="s">
+      <c r="KQ29" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="KR11" s="3" t="s">
+      <c r="KR29" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="KS11" s="3" t="s">
+      <c r="KS29" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="KT11" s="3" t="s">
+      <c r="KT29" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="KU11" s="3" t="s">
+      <c r="KU29" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="KV11" s="3" t="s">
+      <c r="KV29" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="KW11" s="3" t="s">
+      <c r="KW29" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="KX11" s="3" t="s">
+      <c r="KX29" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="KY11" s="3" t="s">
+      <c r="KY29" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="KZ11" s="3" t="s">
+      <c r="KZ29" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="LA11" s="3" t="s">
+      <c r="LA29" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="LB11" s="3" t="s">
+      <c r="LB29" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="LC11" s="3" t="s">
+      <c r="LC29" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="LD11" s="3" t="s">
+      <c r="LD29" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="LE11" s="3" t="s">
+      <c r="LE29" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="LF11" s="3" t="s">
+      <c r="LF29" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="LG11" s="3" t="s">
+      <c r="LG29" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="LH11" s="3" t="s">
+      <c r="LH29" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="LI11" s="3" t="s">
+      <c r="LI29" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="LJ11" s="3" t="s">
+      <c r="LJ29" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="LK11" s="3" t="s">
+      <c r="LK29" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="LL11" s="3" t="s">
+      <c r="LL29" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="LM11" s="3" t="s">
+      <c r="LM29" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="LN11" s="3" t="s">
+      <c r="LN29" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="LO11" s="3" t="s">
+      <c r="LO29" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="LP11" s="3" t="s">
+      <c r="LP29" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="LQ11" s="3" t="s">
+      <c r="LQ29" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="LR11" s="3" t="s">
+      <c r="LR29" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="LS11" s="3" t="s">
+      <c r="LS29" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="LT11" s="3" t="s">
+      <c r="LT29" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="LU11" s="3" t="s">
+      <c r="LU29" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="LV11" s="3" t="s">
+      <c r="LV29" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="LW11" s="3" t="s">
+      <c r="LW29" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="LX11" s="3" t="s">
+      <c r="LX29" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="LY11" s="3" t="s">
+      <c r="LY29" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="LZ11" s="3" t="s">
+      <c r="LZ29" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="MA11" s="3" t="s">
+      <c r="MA29" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="MB11" s="3" t="s">
+      <c r="MB29" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="MC11" s="3" t="s">
+      <c r="MC29" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="MD11" s="3" t="s">
+      <c r="MD29" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="ME11" s="3" t="s">
+      <c r="ME29" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="MF11" s="3" t="s">
+      <c r="MF29" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="MG11" s="3" t="s">
+      <c r="MG29" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="MH11" s="3" t="s">
+      <c r="MH29" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="MI11" s="3" t="s">
+      <c r="MI29" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="MJ11" s="3" t="s">
+      <c r="MJ29" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="MK11" s="3" t="s">
+      <c r="MK29" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="ML11" s="3" t="s">
+      <c r="ML29" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="MM11" s="3" t="s">
+      <c r="MM29" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="MN11" s="3" t="s">
+      <c r="MN29" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="MO11" s="3" t="s">
+      <c r="MO29" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="MP11" s="3" t="s">
+      <c r="MP29" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="MQ11" s="3" t="s">
+      <c r="MQ29" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="MR11" s="3" t="s">
+      <c r="MR29" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="MS11" s="3" t="s">
+      <c r="MS29" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="MT11" s="3" t="s">
+      <c r="MT29" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="MU11" s="3" t="s">
+      <c r="MU29" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="MV11" s="3" t="s">
+      <c r="MV29" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="MW11" s="3" t="s">
+      <c r="MW29" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="MX11" s="3" t="s">
+      <c r="MX29" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="MY11" s="3" t="s">
+      <c r="MY29" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="MZ11" s="3" t="s">
+      <c r="MZ29" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="NA11" s="3" t="s">
+      <c r="NA29" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="NB11" s="3" t="s">
+      <c r="NB29" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="NC11" s="3" t="s">
+      <c r="NC29" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="ND11" s="3" t="s">
+      <c r="ND29" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="NE11" s="3" t="s">
+      <c r="NE29" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="NF11" s="3" t="s">
+      <c r="NF29" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="NG11" s="3" t="s">
+      <c r="NG29" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="NH11" s="3" t="s">
+      <c r="NH29" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="NI11" s="3" t="s">
+      <c r="NI29" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="NJ11" s="3" t="s">
+      <c r="NJ29" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="NK11" s="3" t="s">
+      <c r="NK29" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="NL11" s="3" t="s">
+      <c r="NL29" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="NM11" s="3" t="s">
+      <c r="NM29" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="NN11" s="3" t="s">
+      <c r="NN29" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="NO11" s="3" t="s">
+      <c r="NO29" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="NP11" s="3" t="s">
+      <c r="NP29" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="NQ11" s="3" t="s">
+      <c r="NQ29" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="NR11" s="3" t="s">
+      <c r="NR29" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="NS11" s="3" t="s">
+      <c r="NS29" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="NT11" s="3" t="s">
+      <c r="NT29" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="NU11" s="3" t="s">
+      <c r="NU29" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="NV11" s="3" t="s">
+      <c r="NV29" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="NW11" s="3" t="s">
+      <c r="NW29" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="NX11" s="3" t="s">
+      <c r="NX29" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="NY11" s="3" t="s">
+      <c r="NY29" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="NZ11" s="3" t="s">
+      <c r="NZ29" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="OA11" s="3" t="s">
+      <c r="OA29" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="OB11" s="3" t="s">
+      <c r="OB29" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="OC11" s="3" t="s">
+      <c r="OC29" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="OD11" s="3" t="s">
+      <c r="OD29" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="OE11" s="3" t="s">
+      <c r="OE29" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="OF11" s="3" t="s">
+      <c r="OF29" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="OG11" s="3" t="s">
+      <c r="OG29" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="OH11" s="3" t="s">
+      <c r="OH29" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="OI11" s="3" t="s">
+      <c r="OI29" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="OJ11" s="3" t="s">
+      <c r="OJ29" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="OK11" s="3" t="s">
+      <c r="OK29" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="OL11" s="3" t="s">
+      <c r="OL29" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="OM11" s="3" t="s">
+      <c r="OM29" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="ON11" s="3" t="s">
+      <c r="ON29" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="OO11" s="3" t="s">
+      <c r="OO29" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="OP11" s="3" t="s">
+      <c r="OP29" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="OQ11" s="3" t="s">
+      <c r="OQ29" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="OR11" s="3" t="s">
+      <c r="OR29" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="OS11" s="3" t="s">
+      <c r="OS29" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="OT11" s="3" t="s">
+      <c r="OT29" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="OU11" s="3" t="s">
+      <c r="OU29" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="OV11" s="3" t="s">
+      <c r="OV29" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="OW11" s="3" t="s">
+      <c r="OW29" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="OX11" s="3" t="s">
+      <c r="OX29" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="OY11" s="3" t="s">
+      <c r="OY29" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="OZ11" s="3" t="s">
+      <c r="OZ29" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="PA11" s="3" t="s">
+      <c r="PA29" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="PB11" s="3" t="s">
+      <c r="PB29" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="PC11" s="3" t="s">
+      <c r="PC29" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="PD11" s="3" t="s">
+      <c r="PD29" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="PE11" s="3" t="s">
+      <c r="PE29" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="PF11" s="3" t="s">
+      <c r="PF29" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="PG11" s="3" t="s">
+      <c r="PG29" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="PH11" s="3" t="s">
+      <c r="PH29" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="PI11" s="3" t="s">
+      <c r="PI29" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="PJ11" s="3" t="s">
+      <c r="PJ29" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="PK11" s="3" t="s">
+      <c r="PK29" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="PL11" s="3" t="s">
+      <c r="PL29" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="PM11" s="3" t="s">
+      <c r="PM29" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="PN11" s="3" t="s">
+      <c r="PN29" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="PO11" s="3" t="s">
+      <c r="PO29" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="PP11" s="3" t="s">
+      <c r="PP29" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="PQ11" s="3" t="s">
+      <c r="PQ29" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="PR11" s="3" t="s">
+      <c r="PR29" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="PS11" s="3" t="s">
+      <c r="PS29" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="PT11" s="3" t="s">
+      <c r="PT29" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="PU11" s="3" t="s">
+      <c r="PU29" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="PV11" s="3" t="s">
+      <c r="PV29" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="PW11" s="3" t="s">
+      <c r="PW29" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="PX11" s="3" t="s">
+      <c r="PX29" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="PY11" s="3" t="s">
+      <c r="PY29" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="PZ11" s="3" t="s">
+      <c r="PZ29" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="QA11" s="3" t="s">
+      <c r="QA29" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="QB11" s="3" t="s">
+      <c r="QB29" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="QC11" s="3" t="s">
+      <c r="QC29" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="QD11" s="3" t="s">
+      <c r="QD29" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="QE11" s="3" t="s">
+      <c r="QE29" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="QF11" s="3" t="s">
+      <c r="QF29" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="QG11" s="3" t="s">
+      <c r="QG29" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="QH11" s="3" t="s">
+      <c r="QH29" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="QI11" s="3" t="s">
+      <c r="QI29" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="QJ11" s="3" t="s">
+      <c r="QJ29" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="QK11" s="3" t="s">
+      <c r="QK29" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="QL11" s="3" t="s">
+      <c r="QL29" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="QM11" s="3" t="s">
+      <c r="QM29" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="QN11" s="3" t="s">
+      <c r="QN29" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="QO11" s="3" t="s">
+      <c r="QO29" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="QP11" s="3" t="s">
+      <c r="QP29" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="QQ11" s="3" t="s">
+      <c r="QQ29" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="QR11" s="3" t="s">
+      <c r="QR29" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="QS11" s="3" t="s">
+      <c r="QS29" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="QT11" s="3" t="s">
+      <c r="QT29" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="QU11" s="3" t="s">
+      <c r="QU29" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="QV11" s="3" t="s">
+      <c r="QV29" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="QW11" s="3" t="s">
+      <c r="QW29" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="QX11" s="3" t="s">
+      <c r="QX29" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="QY11" s="3" t="s">
+      <c r="QY29" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="QZ11" s="3" t="s">
+      <c r="QZ29" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="RA11" s="3" t="s">
+      <c r="RA29" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="RB11" s="3" t="s">
+      <c r="RB29" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="RC11" s="3" t="s">
+      <c r="RC29" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="RD11" s="3" t="s">
+      <c r="RD29" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="RE11" s="3" t="s">
+      <c r="RE29" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="RF11" s="3" t="s">
+      <c r="RF29" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="RG11" s="3" t="s">
+      <c r="RG29" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="RH11" s="3" t="s">
+      <c r="RH29" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="RI11" s="3" t="s">
+      <c r="RI29" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="RJ11" s="3" t="s">
+      <c r="RJ29" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="RK11" s="3" t="s">
+      <c r="RK29" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="RL11" s="3" t="s">
+      <c r="RL29" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="RM11" s="3" t="s">
+      <c r="RM29" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="RN11" s="3" t="s">
+      <c r="RN29" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="RO11" s="3" t="s">
+      <c r="RO29" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="RP11" s="3" t="s">
+      <c r="RP29" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="RQ11" s="3" t="s">
+      <c r="RQ29" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="RR11" s="3" t="s">
+      <c r="RR29" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="RS11" s="3" t="s">
+      <c r="RS29" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="RT11" s="3" t="s">
+      <c r="RT29" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="RU11" s="3" t="s">
+      <c r="RU29" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="RV11" s="3" t="s">
+      <c r="RV29" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="RW11" s="3" t="s">
+      <c r="RW29" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="RX11" s="3" t="s">
+      <c r="RX29" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="RY11" s="3" t="s">
+      <c r="RY29" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="RZ11" s="3" t="s">
+      <c r="RZ29" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="SA11" s="3" t="s">
+      <c r="SA29" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="SB11" s="3" t="s">
+      <c r="SB29" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="SC11" s="3" t="s">
+      <c r="SC29" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="SD11" s="3" t="s">
+      <c r="SD29" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="SE11" s="3" t="s">
+      <c r="SE29" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="SF11" s="3" t="s">
+      <c r="SF29" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="SG11" s="3" t="s">
+      <c r="SG29" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="SH11" s="3" t="s">
+      <c r="SH29" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="SI11" s="3" t="s">
+      <c r="SI29" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="SJ11" s="3" t="s">
+      <c r="SJ29" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="SK11" s="3" t="s">
+      <c r="SK29" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="SL11" s="3" t="s">
+      <c r="SL29" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="SM11" s="3" t="s">
+      <c r="SM29" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="SN11" s="3" t="s">
+      <c r="SN29" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="SO11" s="3" t="s">
+      <c r="SO29" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="SP11" s="3" t="s">
+      <c r="SP29" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="SQ11" s="3" t="s">
+      <c r="SQ29" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="SR11" s="3" t="s">
+      <c r="SR29" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="SS11" s="3" t="s">
+      <c r="SS29" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="ST11" s="3" t="s">
+      <c r="ST29" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="SU11" s="3" t="s">
+      <c r="SU29" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="SV11" s="3" t="s">
+      <c r="SV29" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="SW11" s="3" t="s">
+      <c r="SW29" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="SX11" s="3" t="s">
+      <c r="SX29" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="SY11" s="3" t="s">
+      <c r="SY29" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="SZ11" s="3" t="s">
+      <c r="SZ29" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="TA11" s="3" t="s">
+      <c r="TA29" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="TB11" s="3" t="s">
+      <c r="TB29" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="TC11" s="3" t="s">
+      <c r="TC29" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="TD11" s="3" t="s">
+      <c r="TD29" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="TE11" s="3" t="s">
+      <c r="TE29" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="TF11" s="3" t="s">
+      <c r="TF29" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="TG11" s="3" t="s">
+      <c r="TG29" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="TH11" s="3" t="s">
+      <c r="TH29" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="TI11" s="3" t="s">
+      <c r="TI29" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="TJ11" s="3" t="s">
+      <c r="TJ29" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="TK11" s="3" t="s">
+      <c r="TK29" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="TL11" s="3" t="s">
+      <c r="TL29" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="TM11" s="3" t="s">
+      <c r="TM29" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="TN11" s="3" t="s">
+      <c r="TN29" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="TO11" s="3" t="s">
+      <c r="TO29" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="TP11" s="3" t="s">
+      <c r="TP29" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="TQ11" s="3" t="s">
+      <c r="TQ29" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="TR11" s="3" t="s">
+      <c r="TR29" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="TS11" s="3" t="s">
+      <c r="TS29" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="TT11" s="3" t="s">
+      <c r="TT29" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="TU11" s="3" t="s">
+      <c r="TU29" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="TV11" s="3" t="s">
+      <c r="TV29" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="TW11" s="3" t="s">
+      <c r="TW29" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="TX11" s="3" t="s">
+      <c r="TX29" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="TY11" s="3" t="s">
+      <c r="TY29" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="TZ11" s="3" t="s">
+      <c r="TZ29" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="UA11" s="3" t="s">
+      <c r="UA29" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="UB11" s="3" t="s">
+      <c r="UB29" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="UC11" s="3" t="s">
+      <c r="UC29" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="UD11" s="3" t="s">
+      <c r="UD29" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="UE11" s="3" t="s">
+      <c r="UE29" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="UF11" s="3" t="s">
+      <c r="UF29" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="UG11" s="3" t="s">
+      <c r="UG29" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="UH11" s="3" t="s">
+      <c r="UH29" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="UI11" s="3" t="s">
+      <c r="UI29" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="UJ11" s="3" t="s">
+      <c r="UJ29" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="UK11" s="3" t="s">
+      <c r="UK29" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="UL11" s="3" t="s">
+      <c r="UL29" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="UM11" s="3" t="s">
+      <c r="UM29" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="UN11" s="3" t="s">
+      <c r="UN29" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="UO11" s="3" t="s">
+      <c r="UO29" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="UP11" s="3" t="s">
+      <c r="UP29" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="UQ11" s="3" t="s">
+      <c r="UQ29" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="UR11" s="3" t="s">
+      <c r="UR29" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="US11" s="3" t="s">
+      <c r="US29" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="UT11" s="3" t="s">
+      <c r="UT29" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="UU11" s="3" t="s">
+      <c r="UU29" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="UV11" s="3" t="s">
+      <c r="UV29" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="UW11" s="3" t="s">
+      <c r="UW29" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="UX11" s="3" t="s">
+      <c r="UX29" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="UY11" s="3" t="s">
+      <c r="UY29" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="UZ11" s="3" t="s">
+      <c r="UZ29" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="VA11" s="3" t="s">
+      <c r="VA29" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="VB11" s="3" t="s">
+      <c r="VB29" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="VC11" s="3" t="s">
+      <c r="VC29" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="VD11" s="3" t="s">
+      <c r="VD29" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="VE11" s="3" t="s">
+      <c r="VE29" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="VF11" s="3" t="s">
+      <c r="VF29" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="VG11" s="3" t="s">
+      <c r="VG29" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="VH11" s="3" t="s">
+      <c r="VH29" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="VI11" s="3" t="s">
+      <c r="VI29" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="VJ11" s="3" t="s">
+      <c r="VJ29" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="VK11" s="3" t="s">
+      <c r="VK29" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="VL11" s="3" t="s">
+      <c r="VL29" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="VM11" s="3" t="s">
+      <c r="VM29" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="VN11" s="3" t="s">
+      <c r="VN29" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="VO11" s="3" t="s">
+      <c r="VO29" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="VP11" s="3" t="s">
+      <c r="VP29" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="VQ11" s="3" t="s">
+      <c r="VQ29" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="VR11" s="3" t="s">
+      <c r="VR29" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="VS11" s="3" t="s">
+      <c r="VS29" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="VT11" s="3" t="s">
+      <c r="VT29" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="12" spans="1:592" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="30" spans="1:592" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B30" s="5">
         <v>4964.5</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C30" s="5">
         <v>4576.2</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D30" s="5">
         <v>4820.3</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E30" s="5">
         <v>4742.7</v>
       </c>
-      <c r="F12" s="5">
-        <v>4736.6</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F30" s="5">
+        <v>4736.6000000000004</v>
+      </c>
+      <c r="G30" s="5">
         <v>5010.2</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H30" s="5">
         <v>4780.2</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I30" s="5">
         <v>4945.2</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J30" s="5">
         <v>4931.7</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K30" s="5">
         <v>4797.3</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L30" s="5">
         <v>5032.7</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M30" s="5">
         <v>4762.5</v>
       </c>
-      <c r="N12" s="5">
-        <v>4740.4</v>
-      </c>
-      <c r="O12" s="5">
-        <v>4240.9</v>
-      </c>
-      <c r="P12" s="5">
+      <c r="N30" s="5">
+        <v>4740.3999999999996</v>
+      </c>
+      <c r="O30" s="5">
+        <v>4240.8999999999996</v>
+      </c>
+      <c r="P30" s="5">
         <v>4667.5</v>
       </c>
-      <c r="Q12" s="5">
-        <v>4665.9</v>
-      </c>
-      <c r="R12" s="5">
+      <c r="Q30" s="5">
+        <v>4665.8999999999996</v>
+      </c>
+      <c r="R30" s="5">
         <v>4694.7</v>
       </c>
-      <c r="S12" s="5">
-        <v>4782.1</v>
-      </c>
-      <c r="T12" s="6">
+      <c r="S30" s="5">
+        <v>4782.1000000000004</v>
+      </c>
+      <c r="T30" s="6">
         <v>4720</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U30" s="5">
         <v>4921.3</v>
       </c>
-      <c r="V12" s="5">
-        <v>4952.4</v>
-      </c>
-      <c r="W12" s="5">
+      <c r="V30" s="5">
+        <v>4952.3999999999996</v>
+      </c>
+      <c r="W30" s="5">
         <v>4738.8</v>
       </c>
-      <c r="X12" s="5">
+      <c r="X30" s="5">
         <v>4968.7</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Y30" s="5">
         <v>4716.2</v>
       </c>
-      <c r="Z12" s="5">
-        <v>4886.1</v>
-      </c>
-      <c r="AA12" s="5">
+      <c r="Z30" s="5">
+        <v>4886.1000000000004</v>
+      </c>
+      <c r="AA30" s="5">
         <v>4287.3</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AB30" s="5">
         <v>4780.2</v>
       </c>
-      <c r="AC12" s="5">
-        <v>4783.9</v>
-      </c>
-      <c r="AD12" s="5">
+      <c r="AC30" s="5">
+        <v>4783.8999999999996</v>
+      </c>
+      <c r="AD30" s="5">
         <v>4602.2</v>
       </c>
-      <c r="AE12" s="5">
+      <c r="AE30" s="5">
         <v>4825.3</v>
       </c>
-      <c r="AF12" s="5">
+      <c r="AF30" s="5">
         <v>4633.2</v>
       </c>
-      <c r="AG12" s="5">
+      <c r="AG30" s="5">
         <v>4719.8</v>
       </c>
-      <c r="AH12" s="5">
-        <v>4801.6</v>
-      </c>
-      <c r="AI12" s="5">
+      <c r="AH30" s="5">
+        <v>4801.6000000000004</v>
+      </c>
+      <c r="AI30" s="5">
         <v>4714.8</v>
       </c>
-      <c r="AJ12" s="6">
+      <c r="AJ30" s="6">
         <v>4808</v>
       </c>
-      <c r="AK12" s="5">
+      <c r="AK30" s="5">
         <v>4632.5</v>
       </c>
-      <c r="AL12" s="6">
+      <c r="AL30" s="6">
         <v>4733</v>
       </c>
-      <c r="AM12" s="6">
+      <c r="AM30" s="6">
         <v>4113</v>
       </c>
-      <c r="AN12" s="5">
-        <v>4420.9</v>
-      </c>
-      <c r="AO12" s="5">
+      <c r="AN30" s="5">
+        <v>4420.8999999999996</v>
+      </c>
+      <c r="AO30" s="5">
         <v>4547.5</v>
       </c>
-      <c r="AP12" s="6">
+      <c r="AP30" s="6">
         <v>4370</v>
       </c>
-      <c r="AQ12" s="5">
+      <c r="AQ30" s="5">
         <v>4537.7</v>
       </c>
-      <c r="AR12" s="5">
-        <v>4321.1</v>
-      </c>
-      <c r="AS12" s="5">
+      <c r="AR30" s="5">
+        <v>4321.1000000000004</v>
+      </c>
+      <c r="AS30" s="5">
         <v>4476.5</v>
       </c>
-      <c r="AT12" s="6">
+      <c r="AT30" s="6">
         <v>4420</v>
       </c>
-      <c r="AU12" s="6">
+      <c r="AU30" s="6">
         <v>4287</v>
       </c>
-      <c r="AV12" s="5">
-        <v>4338.9</v>
-      </c>
-      <c r="AW12" s="6">
+      <c r="AV30" s="5">
+        <v>4338.8999999999996</v>
+      </c>
+      <c r="AW30" s="6">
         <v>4239</v>
       </c>
-      <c r="AX12" s="5">
+      <c r="AX30" s="5">
         <v>4655.5</v>
       </c>
-      <c r="AY12" s="5">
-        <v>4329.1</v>
-      </c>
-      <c r="AZ12" s="5">
+      <c r="AY30" s="5">
+        <v>4329.1000000000004</v>
+      </c>
+      <c r="AZ30" s="5">
         <v>4549.3</v>
       </c>
-      <c r="BA12" s="5">
-        <v>4429.9</v>
-      </c>
-      <c r="BB12" s="5">
+      <c r="BA30" s="5">
+        <v>4429.8999999999996</v>
+      </c>
+      <c r="BB30" s="5">
         <v>4424.2</v>
       </c>
-      <c r="BC12" s="5">
-        <v>4565.1</v>
-      </c>
-      <c r="BD12" s="5">
-        <v>4585.6</v>
-      </c>
-      <c r="BE12" s="5">
-        <v>4694.4</v>
-      </c>
-      <c r="BF12" s="5">
+      <c r="BC30" s="5">
+        <v>4565.1000000000004</v>
+      </c>
+      <c r="BD30" s="5">
+        <v>4585.6000000000004</v>
+      </c>
+      <c r="BE30" s="5">
+        <v>4694.3999999999996</v>
+      </c>
+      <c r="BF30" s="5">
         <v>4658.5</v>
       </c>
-      <c r="BG12" s="5">
+      <c r="BG30" s="5">
         <v>4437.8</v>
       </c>
-      <c r="BH12" s="5">
+      <c r="BH30" s="5">
         <v>4717.7</v>
       </c>
-      <c r="BI12" s="5">
+      <c r="BI30" s="5">
         <v>4495.5</v>
       </c>
-      <c r="BJ12" s="5">
-        <v>4543.6</v>
-      </c>
-      <c r="BK12" s="5">
+      <c r="BJ30" s="5">
+        <v>4543.6000000000004</v>
+      </c>
+      <c r="BK30" s="5">
         <v>4034.3</v>
       </c>
-      <c r="BL12" s="5">
+      <c r="BL30" s="5">
         <v>4555.7</v>
       </c>
-      <c r="BM12" s="5">
+      <c r="BM30" s="5">
         <v>4419.2</v>
       </c>
-      <c r="BN12" s="5">
-        <v>4303.1</v>
-      </c>
-      <c r="BO12" s="5">
+      <c r="BN30" s="5">
+        <v>4303.1000000000004</v>
+      </c>
+      <c r="BO30" s="5">
         <v>4535.3</v>
       </c>
-      <c r="BP12" s="5">
-        <v>4324.4</v>
-      </c>
-      <c r="BQ12" s="5">
-        <v>4583.9</v>
-      </c>
-      <c r="BR12" s="6">
+      <c r="BP30" s="5">
+        <v>4324.3999999999996</v>
+      </c>
+      <c r="BQ30" s="5">
+        <v>4583.8999999999996</v>
+      </c>
+      <c r="BR30" s="6">
         <v>4579</v>
       </c>
-      <c r="BS12" s="5">
-        <v>4445.9</v>
-      </c>
-      <c r="BT12" s="6">
+      <c r="BS30" s="5">
+        <v>4445.8999999999996</v>
+      </c>
+      <c r="BT30" s="6">
         <v>4623</v>
       </c>
-      <c r="BU12" s="5">
+      <c r="BU30" s="5">
         <v>4381.8</v>
       </c>
-      <c r="BV12" s="5">
+      <c r="BV30" s="5">
         <v>4477.5</v>
       </c>
-      <c r="BW12" s="5">
+      <c r="BW30" s="5">
         <v>3923.2</v>
       </c>
-      <c r="BX12" s="5">
+      <c r="BX30" s="5">
         <v>4308.5</v>
       </c>
-      <c r="BY12" s="5">
+      <c r="BY30" s="5">
         <v>4376.5</v>
       </c>
-      <c r="BZ12" s="5">
+      <c r="BZ30" s="5">
         <v>4283.3</v>
       </c>
-      <c r="CA12" s="5">
+      <c r="CA30" s="5">
         <v>4504.5</v>
       </c>
-      <c r="CB12" s="5">
-        <v>4365.6</v>
-      </c>
-      <c r="CC12" s="5">
-        <v>4555.1</v>
-      </c>
-      <c r="CD12" s="5">
+      <c r="CB30" s="5">
+        <v>4365.6000000000004</v>
+      </c>
+      <c r="CC30" s="5">
+        <v>4555.1000000000004</v>
+      </c>
+      <c r="CD30" s="5">
         <v>4522.2</v>
       </c>
-      <c r="CE12" s="5">
-        <v>4385.4</v>
-      </c>
-      <c r="CF12" s="5">
+      <c r="CE30" s="5">
+        <v>4385.3999999999996</v>
+      </c>
+      <c r="CF30" s="5">
         <v>4514.8</v>
       </c>
-      <c r="CG12" s="6">
+      <c r="CG30" s="6">
         <v>4187</v>
       </c>
-      <c r="CH12" s="5">
-        <v>4344.4</v>
-      </c>
-      <c r="CI12" s="5">
+      <c r="CH30" s="5">
+        <v>4344.3999999999996</v>
+      </c>
+      <c r="CI30" s="5">
         <v>3892.2</v>
       </c>
-      <c r="CJ12" s="5">
+      <c r="CJ30" s="5">
         <v>4294.8</v>
       </c>
-      <c r="CK12" s="6">
+      <c r="CK30" s="6">
         <v>4357</v>
       </c>
-      <c r="CL12" s="5">
-        <v>4242.1</v>
-      </c>
-      <c r="CM12" s="5">
+      <c r="CL30" s="5">
+        <v>4242.1000000000004</v>
+      </c>
+      <c r="CM30" s="5">
         <v>4439.7</v>
       </c>
-      <c r="CN12" s="5">
-        <v>4345.9</v>
-      </c>
-      <c r="CO12" s="6">
+      <c r="CN30" s="5">
+        <v>4345.8999999999996</v>
+      </c>
+      <c r="CO30" s="6">
         <v>4477</v>
       </c>
-      <c r="CP12" s="6">
+      <c r="CP30" s="6">
         <v>4366</v>
       </c>
-      <c r="CQ12" s="5">
+      <c r="CQ30" s="5">
         <v>4261.5</v>
       </c>
-      <c r="CR12" s="5">
-        <v>4431.1</v>
-      </c>
-      <c r="CS12" s="5">
-        <v>4304.4</v>
-      </c>
-      <c r="CT12" s="5">
-        <v>4313.1</v>
-      </c>
-      <c r="CU12" s="5">
+      <c r="CR30" s="5">
+        <v>4431.1000000000004</v>
+      </c>
+      <c r="CS30" s="5">
+        <v>4304.3999999999996</v>
+      </c>
+      <c r="CT30" s="5">
+        <v>4313.1000000000004</v>
+      </c>
+      <c r="CU30" s="5">
         <v>3849.2</v>
       </c>
-      <c r="CV12" s="5">
-        <v>4199.6</v>
-      </c>
-      <c r="CW12" s="5">
-        <v>4131.4</v>
-      </c>
-      <c r="CX12" s="5">
+      <c r="CV30" s="5">
+        <v>4199.6000000000004</v>
+      </c>
+      <c r="CW30" s="5">
+        <v>4131.3999999999996</v>
+      </c>
+      <c r="CX30" s="5">
         <v>4080.6</v>
       </c>
-      <c r="CY12" s="5">
+      <c r="CY30" s="5">
         <v>4389.8</v>
       </c>
-      <c r="CZ12" s="5">
+      <c r="CZ30" s="5">
         <v>4228.8</v>
       </c>
-      <c r="DA12" s="5">
+      <c r="DA30" s="5">
         <v>4304.7</v>
       </c>
-      <c r="DB12" s="5">
-        <v>4419.1</v>
-      </c>
-      <c r="DC12" s="5">
+      <c r="DB30" s="5">
+        <v>4419.1000000000004</v>
+      </c>
+      <c r="DC30" s="5">
         <v>4210.3</v>
       </c>
-      <c r="DD12" s="5">
-        <v>4298.4</v>
-      </c>
-      <c r="DE12" s="5">
+      <c r="DD30" s="5">
+        <v>4298.3999999999996</v>
+      </c>
+      <c r="DE30" s="5">
         <v>4173.8</v>
       </c>
-      <c r="DF12" s="5">
-        <v>4249.6</v>
-      </c>
-      <c r="DG12" s="5">
+      <c r="DF30" s="5">
+        <v>4249.6000000000004</v>
+      </c>
+      <c r="DG30" s="5">
         <v>3666.9</v>
       </c>
-      <c r="DH12" s="5">
+      <c r="DH30" s="5">
         <v>4118.2</v>
       </c>
-      <c r="DI12" s="5">
+      <c r="DI30" s="5">
         <v>4054.9</v>
       </c>
-      <c r="DJ12" s="5">
+      <c r="DJ30" s="5">
         <v>3971.9</v>
       </c>
-      <c r="DK12" s="5">
+      <c r="DK30" s="5">
         <v>4251.2</v>
       </c>
-      <c r="DL12" s="5">
-        <v>4165.9</v>
-      </c>
-      <c r="DM12" s="5">
+      <c r="DL30" s="5">
+        <v>4165.8999999999996</v>
+      </c>
+      <c r="DM30" s="5">
         <v>4212.2</v>
       </c>
-      <c r="DN12" s="5">
+      <c r="DN30" s="5">
         <v>4338.7</v>
       </c>
-      <c r="DO12" s="6">
+      <c r="DO30" s="6">
         <v>4201</v>
       </c>
-      <c r="DP12" s="6">
+      <c r="DP30" s="6">
         <v>4264</v>
       </c>
-      <c r="DQ12" s="5">
+      <c r="DQ30" s="5">
         <v>4081.8</v>
       </c>
-      <c r="DR12" s="5">
-        <v>4157.9</v>
-      </c>
-      <c r="DS12" s="5">
+      <c r="DR30" s="5">
+        <v>4157.8999999999996</v>
+      </c>
+      <c r="DS30" s="5">
         <v>3667.9</v>
       </c>
-      <c r="DT12" s="5">
+      <c r="DT30" s="5">
         <v>3942.3</v>
       </c>
-      <c r="DU12" s="5">
+      <c r="DU30" s="5">
         <v>3951.6</v>
       </c>
-      <c r="DV12" s="5">
+      <c r="DV30" s="5">
         <v>3918.7</v>
       </c>
-      <c r="DW12" s="5">
+      <c r="DW30" s="5">
         <v>4082.9</v>
       </c>
-      <c r="DX12" s="5">
+      <c r="DX30" s="5">
         <v>3971.1</v>
       </c>
-      <c r="DY12" s="5">
+      <c r="DY30" s="5">
         <v>4162.5</v>
       </c>
-      <c r="DZ12" s="6">
+      <c r="DZ30" s="6">
         <v>4158</v>
       </c>
-      <c r="EA12" s="5">
+      <c r="EA30" s="5">
         <v>4043.6</v>
       </c>
-      <c r="EB12" s="6">
+      <c r="EB30" s="6">
         <v>4239</v>
       </c>
-      <c r="EC12" s="5">
+      <c r="EC30" s="5">
         <v>4030.8</v>
       </c>
-      <c r="ED12" s="6">
+      <c r="ED30" s="6">
         <v>4039</v>
       </c>
-      <c r="EE12" s="5">
+      <c r="EE30" s="5">
         <v>3445.1</v>
       </c>
-      <c r="EF12" s="5">
+      <c r="EF30" s="5">
         <v>3921.2</v>
       </c>
-      <c r="EG12" s="5">
+      <c r="EG30" s="5">
         <v>3846.1</v>
       </c>
-      <c r="EH12" s="5">
+      <c r="EH30" s="5">
         <v>3842.5</v>
       </c>
-      <c r="EI12" s="5">
+      <c r="EI30" s="5">
         <v>4040.1</v>
       </c>
-      <c r="EJ12" s="5">
+      <c r="EJ30" s="5">
         <v>3877.7</v>
       </c>
-      <c r="EK12" s="5">
+      <c r="EK30" s="5">
         <v>4040.9</v>
       </c>
-      <c r="EL12" s="5">
+      <c r="EL30" s="5">
         <v>4028.3</v>
       </c>
-      <c r="EM12" s="5">
+      <c r="EM30" s="5">
         <v>4005.9</v>
       </c>
-      <c r="EN12" s="5">
+      <c r="EN30" s="5">
         <v>4075.9</v>
       </c>
-      <c r="EO12" s="5">
+      <c r="EO30" s="5">
         <v>3850.4</v>
       </c>
-      <c r="EP12" s="5">
+      <c r="EP30" s="5">
         <v>3919.9</v>
       </c>
-      <c r="EQ12" s="5">
+      <c r="EQ30" s="5">
         <v>3655.8</v>
       </c>
-      <c r="ER12" s="5">
+      <c r="ER30" s="5">
         <v>3752.7</v>
       </c>
-      <c r="ES12" s="5">
+      <c r="ES30" s="5">
         <v>3747.7</v>
       </c>
-      <c r="ET12" s="5">
+      <c r="ET30" s="5">
         <v>3742.6</v>
       </c>
-      <c r="EU12" s="6">
+      <c r="EU30" s="6">
         <v>3840</v>
       </c>
-      <c r="EV12" s="5">
+      <c r="EV30" s="5">
         <v>3873.4</v>
       </c>
-      <c r="EW12" s="5">
+      <c r="EW30" s="5">
         <v>3935.7</v>
       </c>
-      <c r="EX12" s="5">
+      <c r="EX30" s="5">
         <v>4042.9</v>
       </c>
-      <c r="EY12" s="5">
+      <c r="EY30" s="5">
         <v>3965.2</v>
       </c>
-      <c r="EZ12" s="5">
-        <v>4128.9</v>
-      </c>
-      <c r="FA12" s="5">
+      <c r="EZ30" s="5">
+        <v>4128.8999999999996</v>
+      </c>
+      <c r="FA30" s="5">
         <v>3768.2</v>
       </c>
-      <c r="FB12" s="5">
+      <c r="FB30" s="5">
         <v>3851.8</v>
       </c>
-      <c r="FC12" s="5">
+      <c r="FC30" s="5">
         <v>3366.1</v>
       </c>
-      <c r="FD12" s="5">
+      <c r="FD30" s="5">
         <v>3736.9</v>
       </c>
-      <c r="FE12" s="6">
+      <c r="FE30" s="6">
         <v>3796</v>
       </c>
-      <c r="FF12" s="5">
+      <c r="FF30" s="5">
         <v>3741.8</v>
       </c>
-      <c r="FG12" s="5">
+      <c r="FG30" s="5">
         <v>3928.9</v>
       </c>
-      <c r="FH12" s="5">
+      <c r="FH30" s="5">
         <v>3762.3</v>
       </c>
-      <c r="FI12" s="5">
+      <c r="FI30" s="5">
         <v>3857.2</v>
       </c>
-      <c r="FJ12" s="5">
+      <c r="FJ30" s="5">
         <v>3862.7</v>
       </c>
-      <c r="FK12" s="5">
+      <c r="FK30" s="5">
         <v>3740.3</v>
       </c>
-      <c r="FL12" s="5">
+      <c r="FL30" s="5">
         <v>3974.5</v>
       </c>
-      <c r="FM12" s="5">
+      <c r="FM30" s="5">
         <v>3800.1</v>
       </c>
-      <c r="FN12" s="5">
+      <c r="FN30" s="5">
         <v>3872.1</v>
       </c>
-      <c r="FO12" s="5">
+      <c r="FO30" s="5">
         <v>3373.6</v>
       </c>
-      <c r="FP12" s="6">
+      <c r="FP30" s="6">
         <v>3657</v>
       </c>
-      <c r="FQ12" s="5">
+      <c r="FQ30" s="5">
         <v>3606.5</v>
       </c>
-      <c r="FR12" s="5">
+      <c r="FR30" s="5">
         <v>3494.8</v>
       </c>
-      <c r="FS12" s="5">
+      <c r="FS30" s="5">
         <v>3711.3</v>
       </c>
-      <c r="FT12" s="5">
+      <c r="FT30" s="5">
         <v>3578.4</v>
       </c>
-      <c r="FU12" s="5">
+      <c r="FU30" s="5">
         <v>3656.8</v>
       </c>
-      <c r="FV12" s="5">
+      <c r="FV30" s="5">
         <v>3652.1</v>
       </c>
-      <c r="FW12" s="5">
+      <c r="FW30" s="5">
         <v>3571.6</v>
       </c>
-      <c r="FX12" s="5">
+      <c r="FX30" s="5">
         <v>3558.9</v>
       </c>
-      <c r="FY12" s="5">
+      <c r="FY30" s="5">
         <v>3390.6</v>
       </c>
-      <c r="FZ12" s="6">
+      <c r="FZ30" s="6">
         <v>3338</v>
       </c>
-      <c r="GA12" s="5">
+      <c r="GA30" s="5">
         <v>3034.9</v>
       </c>
-      <c r="GB12" s="5">
+      <c r="GB30" s="5">
         <v>3206.7</v>
       </c>
-      <c r="GC12" s="5">
+      <c r="GC30" s="5">
         <v>3297.6</v>
       </c>
-      <c r="GD12" s="6">
+      <c r="GD30" s="6">
         <v>3349</v>
       </c>
-      <c r="GE12" s="5">
+      <c r="GE30" s="5">
         <v>3542.8</v>
       </c>
-      <c r="GF12" s="5">
+      <c r="GF30" s="5">
         <v>3513.1</v>
       </c>
-      <c r="GG12" s="5">
+      <c r="GG30" s="5">
         <v>3537.9</v>
       </c>
-      <c r="GH12" s="5">
+      <c r="GH30" s="5">
         <v>3586.4</v>
       </c>
-      <c r="GI12" s="5">
+      <c r="GI30" s="5">
         <v>3484.9</v>
       </c>
-      <c r="GJ12" s="5">
+      <c r="GJ30" s="5">
         <v>3680.6</v>
       </c>
-      <c r="GK12" s="5">
+      <c r="GK30" s="5">
         <v>3563.9</v>
       </c>
-      <c r="GL12" s="5">
+      <c r="GL30" s="5">
         <v>3469.8</v>
       </c>
-      <c r="GM12" s="5">
+      <c r="GM30" s="5">
         <v>3188.4</v>
       </c>
-      <c r="GN12" s="5">
+      <c r="GN30" s="5">
         <v>3502.4</v>
       </c>
-      <c r="GO12" s="5">
+      <c r="GO30" s="5">
         <v>3371.2</v>
       </c>
-      <c r="GP12" s="5">
+      <c r="GP30" s="5">
         <v>3397.8</v>
       </c>
-      <c r="GQ12" s="5">
+      <c r="GQ30" s="5">
         <v>3620.3</v>
       </c>
-      <c r="GR12" s="5">
+      <c r="GR30" s="5">
         <v>3441.2</v>
       </c>
-      <c r="GS12" s="5">
+      <c r="GS30" s="5">
         <v>3521.7</v>
       </c>
-      <c r="GT12" s="6">
+      <c r="GT30" s="6">
         <v>3514</v>
       </c>
-      <c r="GU12" s="5">
+      <c r="GU30" s="5">
         <v>3456.9</v>
       </c>
-      <c r="GV12" s="5">
+      <c r="GV30" s="5">
         <v>3562.3</v>
       </c>
-      <c r="GW12" s="6">
+      <c r="GW30" s="6">
         <v>3404</v>
       </c>
-      <c r="GX12" s="5">
+      <c r="GX30" s="5">
         <v>3495.4</v>
       </c>
-      <c r="GY12" s="5">
+      <c r="GY30" s="5">
         <v>3015.5</v>
       </c>
-      <c r="GZ12" s="5">
+      <c r="GZ30" s="5">
         <v>3334.1</v>
       </c>
-      <c r="HA12" s="6">
+      <c r="HA30" s="6">
         <v>3307</v>
       </c>
-      <c r="HB12" s="5">
+      <c r="HB30" s="5">
         <v>3303.9</v>
       </c>
-      <c r="HC12" s="5">
+      <c r="HC30" s="5">
         <v>3435.7</v>
       </c>
-      <c r="HD12" s="5">
+      <c r="HD30" s="5">
         <v>3290.3</v>
       </c>
-      <c r="HE12" s="5">
+      <c r="HE30" s="5">
         <v>3403.2</v>
       </c>
-      <c r="HF12" s="5">
+      <c r="HF30" s="5">
         <v>3416.3</v>
       </c>
-      <c r="HG12" s="5">
+      <c r="HG30" s="5">
         <v>3272.3</v>
       </c>
-      <c r="HH12" s="5">
+      <c r="HH30" s="5">
         <v>3404.3</v>
       </c>
-      <c r="HI12" s="5">
+      <c r="HI30" s="5">
         <v>3195.2</v>
       </c>
-      <c r="HJ12" s="5">
+      <c r="HJ30" s="5">
         <v>3404.2</v>
       </c>
-      <c r="HK12" s="5">
+      <c r="HK30" s="5">
         <v>2950.9</v>
       </c>
-      <c r="HL12" s="5">
+      <c r="HL30" s="5">
         <v>3096.8</v>
       </c>
-      <c r="HM12" s="5">
+      <c r="HM30" s="5">
         <v>3240.2</v>
       </c>
-      <c r="HN12" s="5">
+      <c r="HN30" s="5">
         <v>3157.8</v>
       </c>
-      <c r="HO12" s="6">
+      <c r="HO30" s="6">
         <v>3295</v>
       </c>
-      <c r="HP12" s="5">
+      <c r="HP30" s="5">
         <v>3232.7</v>
       </c>
-      <c r="HQ12" s="5">
+      <c r="HQ30" s="5">
         <v>3280.3</v>
       </c>
-      <c r="HR12" s="6">
+      <c r="HR30" s="6">
         <v>3253</v>
       </c>
-      <c r="HS12" s="5">
+      <c r="HS30" s="5">
         <v>3208.8</v>
       </c>
-      <c r="HT12" s="5">
+      <c r="HT30" s="5">
         <v>3258.1</v>
       </c>
-      <c r="HU12" s="5">
+      <c r="HU30" s="5">
         <v>3164.3</v>
       </c>
-      <c r="HV12" s="5">
+      <c r="HV30" s="5">
         <v>3266.6</v>
       </c>
-      <c r="HW12" s="5">
+      <c r="HW30" s="5">
         <v>2815.7</v>
       </c>
-      <c r="HX12" s="5">
+      <c r="HX30" s="5">
         <v>3040.2</v>
       </c>
-      <c r="HY12" s="5">
+      <c r="HY30" s="5">
         <v>3056.2</v>
       </c>
-      <c r="HZ12" s="5">
+      <c r="HZ30" s="5">
         <v>3000.4</v>
       </c>
-      <c r="IA12" s="5">
+      <c r="IA30" s="5">
         <v>3163.4</v>
       </c>
-      <c r="IB12" s="5">
+      <c r="IB30" s="5">
         <v>3086.6</v>
       </c>
-      <c r="IC12" s="6">
+      <c r="IC30" s="6">
         <v>3150</v>
       </c>
-      <c r="ID12" s="5">
+      <c r="ID30" s="5">
         <v>3108.1</v>
       </c>
-      <c r="IE12" s="6">
+      <c r="IE30" s="6">
         <v>3109</v>
       </c>
-      <c r="IF12" s="5">
+      <c r="IF30" s="5">
         <v>3205.7</v>
       </c>
-      <c r="IG12" s="5">
+      <c r="IG30" s="5">
         <v>3101.7</v>
       </c>
-      <c r="IH12" s="5">
+      <c r="IH30" s="5">
         <v>3100.9</v>
       </c>
-      <c r="II12" s="5">
+      <c r="II30" s="5">
         <v>2831.6</v>
       </c>
-      <c r="IJ12" s="5">
+      <c r="IJ30" s="5">
         <v>2895.9</v>
       </c>
-      <c r="IK12" s="5">
+      <c r="IK30" s="5">
         <v>2930.5</v>
       </c>
-      <c r="IL12" s="5">
+      <c r="IL30" s="5">
         <v>2873.5</v>
       </c>
-      <c r="IM12" s="5">
+      <c r="IM30" s="5">
         <v>3018.8</v>
       </c>
-      <c r="IN12" s="5">
+      <c r="IN30" s="5">
         <v>2922.8</v>
       </c>
-      <c r="IO12" s="5">
+      <c r="IO30" s="5">
         <v>2990.9</v>
       </c>
-      <c r="IP12" s="5">
+      <c r="IP30" s="5">
         <v>3018.6</v>
       </c>
-      <c r="IQ12" s="5">
+      <c r="IQ30" s="5">
         <v>2991.4</v>
       </c>
-      <c r="IR12" s="5">
+      <c r="IR30" s="5">
         <v>3093.4</v>
       </c>
-      <c r="IS12" s="5">
+      <c r="IS30" s="5">
         <v>2932.2</v>
       </c>
-      <c r="IT12" s="5">
+      <c r="IT30" s="5">
         <v>3033.9</v>
       </c>
-      <c r="IU12" s="5">
-        <v>2568.7</v>
-      </c>
-      <c r="IV12" s="5">
+      <c r="IU30" s="5">
+        <v>2568.6999999999998</v>
+      </c>
+      <c r="IV30" s="5">
         <v>2906.8</v>
       </c>
-      <c r="IW12" s="5">
+      <c r="IW30" s="5">
         <v>2880.8</v>
       </c>
-      <c r="IX12" s="5">
+      <c r="IX30" s="5">
         <v>2859.3</v>
       </c>
-      <c r="IY12" s="5">
+      <c r="IY30" s="5">
         <v>3061.2</v>
       </c>
-      <c r="IZ12" s="6">
+      <c r="IZ30" s="6">
         <v>2890</v>
       </c>
-      <c r="JA12" s="5">
+      <c r="JA30" s="5">
         <v>3008.5</v>
       </c>
-      <c r="JB12" s="5">
+      <c r="JB30" s="5">
         <v>3039.3</v>
       </c>
-      <c r="JC12" s="5">
+      <c r="JC30" s="5">
         <v>2909.6</v>
       </c>
-      <c r="JD12" s="5">
+      <c r="JD30" s="5">
         <v>3005.1</v>
       </c>
-      <c r="JE12" s="5">
+      <c r="JE30" s="5">
         <v>2911.9</v>
       </c>
-      <c r="JF12" s="5">
+      <c r="JF30" s="5">
         <v>2886.9</v>
       </c>
-      <c r="JG12" s="5">
+      <c r="JG30" s="5">
         <v>2430.9</v>
       </c>
-      <c r="JH12" s="6">
+      <c r="JH30" s="6">
         <v>2781</v>
       </c>
-      <c r="JI12" s="5">
+      <c r="JI30" s="5">
         <v>2693.5</v>
       </c>
-      <c r="JJ12" s="5">
+      <c r="JJ30" s="5">
         <v>2699.4</v>
       </c>
-      <c r="JK12" s="5">
+      <c r="JK30" s="5">
         <v>2858.5</v>
       </c>
-      <c r="JL12" s="5">
+      <c r="JL30" s="5">
         <v>2760.1</v>
       </c>
-      <c r="JM12" s="5">
+      <c r="JM30" s="5">
         <v>2849.6</v>
       </c>
-      <c r="JN12" s="5">
+      <c r="JN30" s="5">
         <v>2895.7</v>
       </c>
-      <c r="JO12" s="5">
+      <c r="JO30" s="5">
         <v>2763.1</v>
       </c>
-      <c r="JP12" s="5">
+      <c r="JP30" s="5">
         <v>2906.8</v>
       </c>
-      <c r="JQ12" s="5">
+      <c r="JQ30" s="5">
         <v>2733.2</v>
       </c>
-      <c r="JR12" s="5">
+      <c r="JR30" s="5">
         <v>2829.7</v>
       </c>
-      <c r="JS12" s="5">
+      <c r="JS30" s="5">
         <v>2466.6</v>
       </c>
-      <c r="JT12" s="5">
-        <v>2604.8</v>
-      </c>
-      <c r="JU12" s="5">
+      <c r="JT30" s="5">
+        <v>2604.8000000000002</v>
+      </c>
+      <c r="JU30" s="5">
         <v>2709.1</v>
       </c>
-      <c r="JV12" s="5">
+      <c r="JV30" s="5">
         <v>2716.7</v>
       </c>
-      <c r="JW12" s="5">
+      <c r="JW30" s="5">
         <v>2792.5</v>
       </c>
-      <c r="JX12" s="5">
+      <c r="JX30" s="5">
         <v>2709.3</v>
       </c>
-      <c r="JY12" s="5">
+      <c r="JY30" s="5">
         <v>2732.4</v>
       </c>
-      <c r="JZ12" s="5">
+      <c r="JZ30" s="5">
         <v>2748.9</v>
       </c>
-      <c r="KA12" s="6">
+      <c r="KA30" s="6">
         <v>2611</v>
       </c>
-      <c r="KB12" s="6">
+      <c r="KB30" s="6">
         <v>2767</v>
       </c>
-      <c r="KC12" s="5">
-        <v>2550.3</v>
-      </c>
-      <c r="KD12" s="5">
+      <c r="KC30" s="5">
+        <v>2550.3000000000002</v>
+      </c>
+      <c r="KD30" s="5">
         <v>2592.4</v>
       </c>
-      <c r="KE12" s="5">
+      <c r="KE30" s="5">
         <v>2277.1</v>
       </c>
-      <c r="KF12" s="5">
-        <v>2458.3</v>
-      </c>
-      <c r="KG12" s="6">
+      <c r="KF30" s="5">
+        <v>2458.3000000000002</v>
+      </c>
+      <c r="KG30" s="6">
         <v>2523</v>
       </c>
-      <c r="KH12" s="5">
+      <c r="KH30" s="5">
         <v>2490.1</v>
       </c>
-      <c r="KI12" s="5">
+      <c r="KI30" s="5">
         <v>2554.5</v>
       </c>
-      <c r="KJ12" s="5">
-        <v>2537.8</v>
-      </c>
-      <c r="KK12" s="5">
-        <v>2542.8</v>
-      </c>
-      <c r="KL12" s="5">
-        <v>2513.2</v>
-      </c>
-      <c r="KM12" s="5">
-        <v>2486.2</v>
-      </c>
-      <c r="KN12" s="5">
+      <c r="KJ30" s="5">
+        <v>2537.8000000000002</v>
+      </c>
+      <c r="KK30" s="5">
+        <v>2542.8000000000002</v>
+      </c>
+      <c r="KL30" s="5">
+        <v>2513.1999999999998</v>
+      </c>
+      <c r="KM30" s="5">
+        <v>2486.1999999999998</v>
+      </c>
+      <c r="KN30" s="5">
         <v>2541.9</v>
       </c>
-      <c r="KO12" s="5">
+      <c r="KO30" s="5">
         <v>2474.6</v>
       </c>
-      <c r="KP12" s="5">
+      <c r="KP30" s="5">
         <v>2450.5</v>
       </c>
-      <c r="KQ12" s="6">
+      <c r="KQ30" s="6">
         <v>2094</v>
       </c>
-      <c r="KR12" s="5">
+      <c r="KR30" s="5">
         <v>2311.5</v>
       </c>
-      <c r="KS12" s="5">
+      <c r="KS30" s="5">
         <v>2344.4</v>
       </c>
-      <c r="KT12" s="5">
+      <c r="KT30" s="5">
         <v>2344.4</v>
       </c>
-      <c r="KU12" s="5">
-        <v>2435.2</v>
-      </c>
-      <c r="KV12" s="5">
+      <c r="KU30" s="5">
+        <v>2435.1999999999998</v>
+      </c>
+      <c r="KV30" s="5">
         <v>2328.4</v>
       </c>
-      <c r="KW12" s="5">
-        <v>2340.2</v>
-      </c>
-      <c r="KX12" s="5">
-        <v>2417.8</v>
-      </c>
-      <c r="KY12" s="5">
+      <c r="KW30" s="5">
+        <v>2340.1999999999998</v>
+      </c>
+      <c r="KX30" s="5">
+        <v>2417.8000000000002</v>
+      </c>
+      <c r="KY30" s="5">
         <v>2379.1</v>
       </c>
-      <c r="KZ12" s="5">
-        <v>2462.3</v>
-      </c>
-      <c r="LA12" s="5">
-        <v>2412.7</v>
-      </c>
-      <c r="LB12" s="5">
+      <c r="KZ30" s="5">
+        <v>2462.3000000000002</v>
+      </c>
+      <c r="LA30" s="5">
+        <v>2412.6999999999998</v>
+      </c>
+      <c r="LB30" s="5">
         <v>2485.1</v>
       </c>
-      <c r="LC12" s="6">
+      <c r="LC30" s="6">
         <v>2176</v>
       </c>
-      <c r="LD12" s="5">
-        <v>2249.2</v>
-      </c>
-      <c r="LE12" s="5">
+      <c r="LD30" s="5">
+        <v>2249.1999999999998</v>
+      </c>
+      <c r="LE30" s="5">
         <v>2305.1</v>
       </c>
-      <c r="LF12" s="5">
-        <v>2262.8</v>
-      </c>
-      <c r="LG12" s="6">
+      <c r="LF30" s="5">
+        <v>2262.8000000000002</v>
+      </c>
+      <c r="LG30" s="6">
         <v>2378</v>
       </c>
-      <c r="LH12" s="5">
-        <v>2327.2</v>
-      </c>
-      <c r="LI12" s="5">
+      <c r="LH30" s="5">
+        <v>2327.1999999999998</v>
+      </c>
+      <c r="LI30" s="5">
         <v>2347.6</v>
       </c>
-      <c r="LJ12" s="5">
-        <v>2349.3</v>
-      </c>
-      <c r="LK12" s="5">
+      <c r="LJ30" s="5">
+        <v>2349.3000000000002</v>
+      </c>
+      <c r="LK30" s="5">
         <v>2279.9</v>
       </c>
-      <c r="LL12" s="5">
-        <v>2312.2</v>
-      </c>
-      <c r="LM12" s="5">
+      <c r="LL30" s="5">
+        <v>2312.1999999999998</v>
+      </c>
+      <c r="LM30" s="5">
         <v>2134.4</v>
       </c>
-      <c r="LN12" s="5">
-        <v>2148.3</v>
-      </c>
-      <c r="LO12" s="5">
+      <c r="LN30" s="5">
+        <v>2148.3000000000002</v>
+      </c>
+      <c r="LO30" s="5">
         <v>1795.7</v>
       </c>
-      <c r="LP12" s="5">
+      <c r="LP30" s="5">
         <v>2068.9</v>
       </c>
-      <c r="LQ12" s="5">
+      <c r="LQ30" s="5">
         <v>2019.8</v>
       </c>
-      <c r="LR12" s="5">
+      <c r="LR30" s="5">
         <v>2022.6</v>
       </c>
-      <c r="LS12" s="5">
+      <c r="LS30" s="5">
         <v>2103.1</v>
       </c>
-      <c r="LT12" s="5">
+      <c r="LT30" s="5">
         <v>2013.3</v>
       </c>
-      <c r="LU12" s="5">
+      <c r="LU30" s="5">
         <v>2046.4</v>
       </c>
-      <c r="LV12" s="5">
+      <c r="LV30" s="5">
         <v>2098.4</v>
       </c>
-      <c r="LW12" s="5">
+      <c r="LW30" s="5">
         <v>2015.5</v>
       </c>
-      <c r="LX12" s="5">
-        <v>2074.3</v>
-      </c>
-      <c r="LY12" s="5">
+      <c r="LX30" s="5">
+        <v>2074.3000000000002</v>
+      </c>
+      <c r="LY30" s="5">
         <v>1956.4</v>
       </c>
-      <c r="LZ12" s="5">
+      <c r="LZ30" s="5">
         <v>2003.8</v>
       </c>
-      <c r="MA12" s="5">
+      <c r="MA30" s="5">
         <v>1662.9</v>
       </c>
-      <c r="MB12" s="5">
+      <c r="MB30" s="5">
         <v>1892.9</v>
       </c>
-      <c r="MC12" s="5">
+      <c r="MC30" s="5">
         <v>1846.2</v>
       </c>
-      <c r="MD12" s="5">
+      <c r="MD30" s="5">
         <v>1853.4</v>
       </c>
-      <c r="ME12" s="5">
+      <c r="ME30" s="5">
         <v>1910.8</v>
       </c>
-      <c r="MF12" s="5">
+      <c r="MF30" s="5">
         <v>1904.6</v>
       </c>
-      <c r="MG12" s="5">
+      <c r="MG30" s="5">
         <v>1897.4</v>
       </c>
-      <c r="MH12" s="5">
+      <c r="MH30" s="5">
         <v>1915.2</v>
       </c>
-      <c r="MI12" s="5">
+      <c r="MI30" s="5">
         <v>1895.1</v>
       </c>
-      <c r="MJ12" s="5">
+      <c r="MJ30" s="5">
         <v>1913.4</v>
       </c>
-      <c r="MK12" s="5">
+      <c r="MK30" s="5">
         <v>1800.7</v>
       </c>
-      <c r="ML12" s="5">
+      <c r="ML30" s="5">
         <v>1837.2</v>
       </c>
-      <c r="MM12" s="5">
+      <c r="MM30" s="5">
         <v>1543.6</v>
       </c>
-      <c r="MN12" s="5">
+      <c r="MN30" s="5">
         <v>1739.8</v>
       </c>
-      <c r="MO12" s="5">
+      <c r="MO30" s="5">
         <v>1768.2</v>
       </c>
-      <c r="MP12" s="5">
+      <c r="MP30" s="5">
         <v>1712.7</v>
       </c>
-      <c r="MQ12" s="5">
+      <c r="MQ30" s="5">
         <v>1821.6</v>
       </c>
-      <c r="MR12" s="5">
+      <c r="MR30" s="5">
         <v>1766.6</v>
       </c>
-      <c r="MS12" s="5">
+      <c r="MS30" s="5">
         <v>1803.5</v>
       </c>
-      <c r="MT12" s="5">
+      <c r="MT30" s="5">
         <v>1818.2</v>
       </c>
-      <c r="MU12" s="5">
+      <c r="MU30" s="5">
         <v>1755.9</v>
       </c>
-      <c r="MV12" s="6">
+      <c r="MV30" s="6">
         <v>1747</v>
       </c>
-      <c r="MW12" s="5">
+      <c r="MW30" s="5">
         <v>1697.7</v>
       </c>
-      <c r="MX12" s="5">
+      <c r="MX30" s="5">
         <v>1699.8</v>
       </c>
-      <c r="MY12" s="5">
+      <c r="MY30" s="5">
         <v>1431.7</v>
       </c>
-      <c r="MZ12" s="5">
+      <c r="MZ30" s="5">
         <v>1652.5</v>
       </c>
-      <c r="NA12" s="5">
+      <c r="NA30" s="5">
         <v>1638.6</v>
       </c>
-      <c r="NB12" s="5">
+      <c r="NB30" s="5">
         <v>1604.5</v>
       </c>
-      <c r="NC12" s="5">
+      <c r="NC30" s="5">
         <v>1660.3</v>
       </c>
-      <c r="ND12" s="5">
+      <c r="ND30" s="5">
         <v>1635.6</v>
       </c>
-      <c r="NE12" s="5">
+      <c r="NE30" s="5">
         <v>1666.3</v>
       </c>
-      <c r="NF12" s="5">
+      <c r="NF30" s="5">
         <v>1656.6</v>
       </c>
-      <c r="NG12" s="5">
+      <c r="NG30" s="5">
         <v>1610.6</v>
       </c>
-      <c r="NH12" s="5">
+      <c r="NH30" s="5">
         <v>1605.5</v>
       </c>
-      <c r="NI12" s="5">
+      <c r="NI30" s="5">
         <v>1552.7</v>
       </c>
-      <c r="NJ12" s="6">
+      <c r="NJ30" s="6">
         <v>1554</v>
       </c>
-      <c r="NK12" s="5">
+      <c r="NK30" s="5">
         <v>1392.7</v>
       </c>
-      <c r="NL12" s="6">
+      <c r="NL30" s="6">
         <v>1385</v>
       </c>
-      <c r="NM12" s="5">
+      <c r="NM30" s="5">
         <v>1466.8</v>
       </c>
-      <c r="NN12" s="5">
+      <c r="NN30" s="5">
         <v>1446.3</v>
       </c>
-      <c r="NO12" s="5">
+      <c r="NO30" s="5">
         <v>1530.1</v>
       </c>
-      <c r="NP12" s="5">
+      <c r="NP30" s="5">
         <v>1449.1</v>
       </c>
-      <c r="NQ12" s="5">
+      <c r="NQ30" s="5">
         <v>1493.7</v>
       </c>
-      <c r="NR12" s="6">
+      <c r="NR30" s="6">
         <v>1524</v>
       </c>
-      <c r="NS12" s="5">
+      <c r="NS30" s="5">
         <v>1471.4</v>
       </c>
-      <c r="NT12" s="5">
+      <c r="NT30" s="5">
         <v>1493.4</v>
       </c>
-      <c r="NU12" s="5">
+      <c r="NU30" s="5">
         <v>1454.5</v>
       </c>
-      <c r="NV12" s="5">
+      <c r="NV30" s="5">
         <v>1506.3</v>
       </c>
-      <c r="NW12" s="5">
+      <c r="NW30" s="5">
         <v>1277.8</v>
       </c>
-      <c r="NX12" s="5">
+      <c r="NX30" s="5">
         <v>1429.7</v>
       </c>
-      <c r="NY12" s="5">
+      <c r="NY30" s="5">
         <v>1366.7</v>
       </c>
-      <c r="NZ12" s="6">
+      <c r="NZ30" s="6">
         <v>1362</v>
       </c>
-      <c r="OA12" s="6">
+      <c r="OA30" s="6">
         <v>1475</v>
       </c>
-      <c r="OB12" s="5">
+      <c r="OB30" s="5">
         <v>1398.5</v>
       </c>
-      <c r="OC12" s="5">
+      <c r="OC30" s="5">
         <v>1449.8</v>
       </c>
-      <c r="OD12" s="5">
+      <c r="OD30" s="5">
         <v>1479.5</v>
       </c>
-      <c r="OE12" s="5">
+      <c r="OE30" s="5">
         <v>1391.8</v>
       </c>
-      <c r="OF12" s="5">
+      <c r="OF30" s="5">
         <v>1415.9</v>
       </c>
-      <c r="OG12" s="5">
+      <c r="OG30" s="5">
         <v>1342.7</v>
       </c>
-      <c r="OH12" s="5">
+      <c r="OH30" s="5">
         <v>1382.7</v>
       </c>
-      <c r="OI12" s="5">
-        <v>1166.1</v>
-      </c>
-      <c r="OJ12" s="5">
+      <c r="OI30" s="5">
+        <v>1166.0999999999999</v>
+      </c>
+      <c r="OJ30" s="5">
         <v>1365.9</v>
       </c>
-      <c r="OK12" s="5">
-        <v>1300.6</v>
-      </c>
-      <c r="OL12" s="5">
+      <c r="OK30" s="5">
+        <v>1300.5999999999999</v>
+      </c>
+      <c r="OL30" s="5">
         <v>1327.2</v>
       </c>
-      <c r="OM12" s="5">
+      <c r="OM30" s="5">
         <v>1368.8</v>
       </c>
-      <c r="ON12" s="5">
+      <c r="ON30" s="5">
         <v>1307.3</v>
       </c>
-      <c r="OO12" s="5">
+      <c r="OO30" s="5">
         <v>1368.8</v>
       </c>
-      <c r="OP12" s="5">
+      <c r="OP30" s="5">
         <v>1346.1</v>
       </c>
-      <c r="OQ12" s="6">
+      <c r="OQ30" s="6">
         <v>1324</v>
       </c>
-      <c r="OR12" s="5">
+      <c r="OR30" s="5">
         <v>1351.8</v>
       </c>
-      <c r="OS12" s="5">
-        <v>1273.9</v>
-      </c>
-      <c r="OT12" s="5">
+      <c r="OS30" s="5">
+        <v>1273.9000000000001</v>
+      </c>
+      <c r="OT30" s="5">
         <v>1330.6</v>
       </c>
-      <c r="OU12" s="5">
+      <c r="OU30" s="5">
         <v>1150.2</v>
       </c>
-      <c r="OV12" s="5">
+      <c r="OV30" s="5">
         <v>1168.3</v>
       </c>
-      <c r="OW12" s="5">
+      <c r="OW30" s="5">
         <v>1203.7</v>
       </c>
-      <c r="OX12" s="5">
-        <v>1209.6</v>
-      </c>
-      <c r="OY12" s="5">
+      <c r="OX30" s="5">
+        <v>1209.5999999999999</v>
+      </c>
+      <c r="OY30" s="5">
         <v>1238.8</v>
       </c>
-      <c r="OZ12" s="5">
-        <v>1188.4</v>
-      </c>
-      <c r="PA12" s="5">
+      <c r="OZ30" s="5">
+        <v>1188.4000000000001</v>
+      </c>
+      <c r="PA30" s="5">
         <v>1225.5</v>
       </c>
-      <c r="PB12" s="5">
-        <v>1208.6</v>
-      </c>
-      <c r="PC12" s="6">
+      <c r="PB30" s="5">
+        <v>1208.5999999999999</v>
+      </c>
+      <c r="PC30" s="6">
         <v>1185</v>
       </c>
-      <c r="PD12" s="5">
-        <v>1188.4</v>
-      </c>
-      <c r="PE12" s="6">
+      <c r="PD30" s="5">
+        <v>1188.4000000000001</v>
+      </c>
+      <c r="PE30" s="6">
         <v>1155</v>
       </c>
-      <c r="PF12" s="5">
-        <v>1134.9</v>
-      </c>
-      <c r="PG12" s="5">
+      <c r="PF30" s="5">
+        <v>1134.9000000000001</v>
+      </c>
+      <c r="PG30" s="5">
         <v>964.4</v>
       </c>
-      <c r="PH12" s="5">
-        <v>1136.6</v>
-      </c>
-      <c r="PI12" s="5">
+      <c r="PH30" s="5">
+        <v>1136.5999999999999</v>
+      </c>
+      <c r="PI30" s="5">
         <v>1109.5</v>
       </c>
-      <c r="PJ12" s="5">
-        <v>1086.4</v>
-      </c>
-      <c r="PK12" s="5">
-        <v>1140.6</v>
-      </c>
-      <c r="PL12" s="5">
+      <c r="PJ30" s="5">
+        <v>1086.4000000000001</v>
+      </c>
+      <c r="PK30" s="5">
+        <v>1140.5999999999999</v>
+      </c>
+      <c r="PL30" s="5">
         <v>1098.3</v>
       </c>
-      <c r="PM12" s="5">
+      <c r="PM30" s="5">
         <v>1122.7</v>
       </c>
-      <c r="PN12" s="5">
+      <c r="PN30" s="5">
         <v>1108.8</v>
       </c>
-      <c r="PO12" s="6">
+      <c r="PO30" s="6">
         <v>1115</v>
       </c>
-      <c r="PP12" s="5">
+      <c r="PP30" s="5">
         <v>1098.8</v>
       </c>
-      <c r="PQ12" s="5">
-        <v>1069.1</v>
-      </c>
-      <c r="PR12" s="5">
+      <c r="PQ30" s="5">
+        <v>1069.0999999999999</v>
+      </c>
+      <c r="PR30" s="5">
         <v>1087.8</v>
       </c>
-      <c r="PS12" s="5">
+      <c r="PS30" s="5">
         <v>945.5</v>
       </c>
-      <c r="PT12" s="6">
+      <c r="PT30" s="6">
         <v>1035</v>
       </c>
-      <c r="PU12" s="5">
+      <c r="PU30" s="5">
         <v>1031.2</v>
       </c>
-      <c r="PV12" s="5">
-        <v>1025.4</v>
-      </c>
-      <c r="PW12" s="6">
+      <c r="PV30" s="5">
+        <v>1025.4000000000001</v>
+      </c>
+      <c r="PW30" s="6">
         <v>1063</v>
       </c>
-      <c r="PX12" s="5">
+      <c r="PX30" s="5">
         <v>1020.8</v>
       </c>
-      <c r="PY12" s="5">
+      <c r="PY30" s="5">
         <v>1000.7</v>
       </c>
-      <c r="PZ12" s="5">
+      <c r="PZ30" s="5">
         <v>1045.2</v>
       </c>
-      <c r="QA12" s="5">
+      <c r="QA30" s="5">
         <v>1002.5</v>
       </c>
-      <c r="QB12" s="5">
+      <c r="QB30" s="5">
         <v>961.7</v>
       </c>
-      <c r="QC12" s="5">
+      <c r="QC30" s="5">
         <v>965.2</v>
       </c>
-      <c r="QD12" s="5">
+      <c r="QD30" s="5">
         <v>980.1</v>
       </c>
-      <c r="QE12" s="5">
+      <c r="QE30" s="5">
         <v>838.9</v>
       </c>
-      <c r="QF12" s="5">
+      <c r="QF30" s="5">
         <v>879.1</v>
       </c>
-      <c r="QG12" s="5">
+      <c r="QG30" s="5">
         <v>926.5</v>
       </c>
-      <c r="QH12" s="5">
+      <c r="QH30" s="5">
         <v>903.3</v>
       </c>
-      <c r="QI12" s="5">
+      <c r="QI30" s="5">
         <v>943.5</v>
       </c>
-      <c r="QJ12" s="5">
+      <c r="QJ30" s="5">
         <v>906.5</v>
       </c>
-      <c r="QK12" s="5">
+      <c r="QK30" s="5">
         <v>929.6</v>
       </c>
-      <c r="QL12" s="5">
+      <c r="QL30" s="5">
         <v>914.7</v>
       </c>
-      <c r="QM12" s="5">
+      <c r="QM30" s="5">
         <v>872.4</v>
       </c>
-      <c r="QN12" s="5">
+      <c r="QN30" s="5">
         <v>917.4</v>
       </c>
-      <c r="QO12" s="5">
+      <c r="QO30" s="5">
         <v>866.3</v>
       </c>
-      <c r="QP12" s="5">
+      <c r="QP30" s="5">
         <v>849.7</v>
       </c>
-      <c r="QQ12" s="5">
+      <c r="QQ30" s="5">
         <v>727.4</v>
       </c>
-      <c r="QR12" s="5">
+      <c r="QR30" s="5">
         <v>819.2</v>
       </c>
-      <c r="QS12" s="5">
+      <c r="QS30" s="5">
         <v>809.8</v>
       </c>
-      <c r="QT12" s="5">
+      <c r="QT30" s="5">
         <v>796.2</v>
       </c>
-      <c r="QU12" s="5">
+      <c r="QU30" s="5">
         <v>845.2</v>
       </c>
-      <c r="QV12" s="5">
+      <c r="QV30" s="5">
         <v>815.7</v>
       </c>
-      <c r="QW12" s="5">
+      <c r="QW30" s="5">
         <v>829.1</v>
       </c>
-      <c r="QX12" s="5">
+      <c r="QX30" s="5">
         <v>847.6</v>
       </c>
-      <c r="QY12" s="5">
+      <c r="QY30" s="5">
         <v>818.3</v>
       </c>
-      <c r="QZ12" s="5">
+      <c r="QZ30" s="5">
         <v>872.9</v>
       </c>
-      <c r="RA12" s="5">
+      <c r="RA30" s="5">
         <v>836.8</v>
       </c>
-      <c r="RB12" s="5">
+      <c r="RB30" s="5">
         <v>846.5</v>
       </c>
-      <c r="RC12" s="5">
+      <c r="RC30" s="5">
         <v>725.3</v>
       </c>
-      <c r="RD12" s="5">
+      <c r="RD30" s="5">
         <v>832.9</v>
       </c>
-      <c r="RE12" s="5">
+      <c r="RE30" s="5">
         <v>792.6</v>
       </c>
-      <c r="RF12" s="5">
+      <c r="RF30" s="5">
         <v>807.3</v>
       </c>
-      <c r="RG12" s="5">
+      <c r="RG30" s="5">
         <v>819.8</v>
       </c>
-      <c r="RH12" s="5">
+      <c r="RH30" s="5">
         <v>777.9</v>
       </c>
-      <c r="RI12" s="6">
+      <c r="RI30" s="6">
         <v>828</v>
       </c>
-      <c r="RJ12" s="5">
+      <c r="RJ30" s="5">
         <v>816.2</v>
       </c>
-      <c r="RK12" s="5">
+      <c r="RK30" s="5">
         <v>790.8</v>
       </c>
-      <c r="RL12" s="5">
+      <c r="RL30" s="5">
         <v>810.2</v>
       </c>
-      <c r="RM12" s="5">
+      <c r="RM30" s="5">
         <v>778.6</v>
       </c>
-      <c r="RN12" s="5">
+      <c r="RN30" s="5">
         <v>793.3</v>
       </c>
-      <c r="RO12" s="5">
+      <c r="RO30" s="5">
         <v>669.4</v>
       </c>
-      <c r="RP12" s="5">
+      <c r="RP30" s="5">
         <v>736.6</v>
       </c>
-      <c r="RQ12" s="5">
+      <c r="RQ30" s="5">
         <v>732.4</v>
       </c>
-      <c r="RR12" s="5">
+      <c r="RR30" s="5">
         <v>730.4</v>
       </c>
-      <c r="RS12" s="6">
+      <c r="RS30" s="6">
         <v>771</v>
       </c>
-      <c r="RT12" s="5">
+      <c r="RT30" s="5">
         <v>730.7</v>
       </c>
-      <c r="RU12" s="5">
+      <c r="RU30" s="5">
         <v>764.2</v>
       </c>
-      <c r="RV12" s="5">
+      <c r="RV30" s="5">
         <v>741.1</v>
       </c>
-      <c r="RW12" s="5">
+      <c r="RW30" s="5">
         <v>728.4</v>
       </c>
-      <c r="RX12" s="5">
+      <c r="RX30" s="5">
         <v>727.1</v>
       </c>
-      <c r="RY12" s="6">
+      <c r="RY30" s="6">
         <v>719</v>
       </c>
-      <c r="RZ12" s="5">
+      <c r="RZ30" s="5">
         <v>727.4</v>
       </c>
-      <c r="SA12" s="5">
+      <c r="SA30" s="5">
         <v>586.9</v>
       </c>
-      <c r="SB12" s="5">
+      <c r="SB30" s="5">
         <v>667.3</v>
       </c>
-      <c r="SC12" s="5">
+      <c r="SC30" s="5">
         <v>657.3</v>
       </c>
-      <c r="SD12" s="5">
+      <c r="SD30" s="5">
         <v>658.4</v>
       </c>
-      <c r="SE12" s="5">
+      <c r="SE30" s="5">
         <v>683.6</v>
       </c>
-      <c r="SF12" s="5">
+      <c r="SF30" s="5">
         <v>664.6</v>
       </c>
-      <c r="SG12" s="5">
+      <c r="SG30" s="5">
         <v>676.6</v>
       </c>
-      <c r="SH12" s="5">
+      <c r="SH30" s="5">
         <v>679.2</v>
       </c>
-      <c r="SI12" s="5">
+      <c r="SI30" s="5">
         <v>673.9</v>
       </c>
-      <c r="SJ12" s="5">
+      <c r="SJ30" s="5">
         <v>676.1</v>
       </c>
-      <c r="SK12" s="6">
+      <c r="SK30" s="6">
         <v>642</v>
       </c>
-      <c r="SL12" s="5">
+      <c r="SL30" s="5">
         <v>674.7</v>
       </c>
-      <c r="SM12" s="5">
+      <c r="SM30" s="5">
         <v>590.4</v>
       </c>
-      <c r="SN12" s="5">
-        <v>582.7</v>
-      </c>
-      <c r="SO12" s="5">
+      <c r="SN30" s="5">
+        <v>582.70000000000005</v>
+      </c>
+      <c r="SO30" s="5">
         <v>620.9</v>
       </c>
-      <c r="SP12" s="5">
-        <v>630.7</v>
-      </c>
-      <c r="SQ12" s="5">
+      <c r="SP30" s="5">
+        <v>630.70000000000005</v>
+      </c>
+      <c r="SQ30" s="5">
         <v>638.6</v>
       </c>
-      <c r="SR12" s="5">
+      <c r="SR30" s="5">
         <v>629.1</v>
       </c>
-      <c r="SS12" s="5">
+      <c r="SS30" s="5">
         <v>638.5</v>
       </c>
-      <c r="ST12" s="5">
+      <c r="ST30" s="5">
         <v>652.6</v>
       </c>
-      <c r="SU12" s="5">
-        <v>639.2</v>
-      </c>
-      <c r="SV12" s="5">
+      <c r="SU30" s="5">
+        <v>639.20000000000005</v>
+      </c>
+      <c r="SV30" s="5">
         <v>634.4</v>
       </c>
-      <c r="SW12" s="5">
+      <c r="SW30" s="5">
         <v>615.1</v>
       </c>
-      <c r="SX12" s="5">
-        <v>631.8</v>
-      </c>
-      <c r="SY12" s="5">
+      <c r="SX30" s="5">
+        <v>631.79999999999995</v>
+      </c>
+      <c r="SY30" s="5">
         <v>513.9</v>
       </c>
-      <c r="SZ12" s="5">
+      <c r="SZ30" s="5">
         <v>597.1</v>
       </c>
-      <c r="TA12" s="5">
+      <c r="TA30" s="5">
         <v>586.5</v>
       </c>
-      <c r="TB12" s="5">
+      <c r="TB30" s="5">
         <v>574.6</v>
       </c>
-      <c r="TC12" s="5">
-        <v>608.7</v>
-      </c>
-      <c r="TD12" s="5">
-        <v>590.8</v>
-      </c>
-      <c r="TE12" s="5">
-        <v>570.7</v>
-      </c>
-      <c r="TF12" s="5">
-        <v>614.2</v>
-      </c>
-      <c r="TG12" s="5">
+      <c r="TC30" s="5">
+        <v>608.70000000000005</v>
+      </c>
+      <c r="TD30" s="5">
+        <v>590.79999999999995</v>
+      </c>
+      <c r="TE30" s="5">
+        <v>570.70000000000005</v>
+      </c>
+      <c r="TF30" s="5">
+        <v>614.20000000000005</v>
+      </c>
+      <c r="TG30" s="5">
         <v>584.4</v>
       </c>
-      <c r="TH12" s="5">
-        <v>595.7</v>
-      </c>
-      <c r="TI12" s="5">
+      <c r="TH30" s="5">
+        <v>595.70000000000005</v>
+      </c>
+      <c r="TI30" s="5">
         <v>561.6</v>
       </c>
-      <c r="TJ12" s="5">
-        <v>584.2</v>
-      </c>
-      <c r="TK12" s="5">
+      <c r="TJ30" s="5">
+        <v>584.20000000000005</v>
+      </c>
+      <c r="TK30" s="5">
         <v>504.8</v>
       </c>
-      <c r="TL12" s="5">
-        <v>564.3</v>
-      </c>
-      <c r="TM12" s="5">
+      <c r="TL30" s="5">
+        <v>564.29999999999995</v>
+      </c>
+      <c r="TM30" s="5">
         <v>548.5</v>
       </c>
-      <c r="TN12" s="5">
+      <c r="TN30" s="5">
         <v>540.5</v>
       </c>
-      <c r="TO12" s="5">
+      <c r="TO30" s="5">
         <v>564.1</v>
       </c>
-      <c r="TP12" s="5">
-        <v>538.2</v>
-      </c>
-      <c r="TQ12" s="5">
+      <c r="TP30" s="5">
+        <v>538.20000000000005</v>
+      </c>
+      <c r="TQ30" s="5">
         <v>546.6</v>
       </c>
-      <c r="TR12" s="5">
+      <c r="TR30" s="5">
         <v>554.1</v>
       </c>
-      <c r="TS12" s="5">
+      <c r="TS30" s="5">
         <v>532.6</v>
       </c>
-      <c r="TT12" s="5">
-        <v>550.8</v>
-      </c>
-      <c r="TU12" s="6">
+      <c r="TT30" s="5">
+        <v>550.79999999999995</v>
+      </c>
+      <c r="TU30" s="6">
         <v>524</v>
       </c>
-      <c r="TV12" s="5">
+      <c r="TV30" s="5">
         <v>553.1</v>
       </c>
-      <c r="TW12" s="6">
+      <c r="TW30" s="6">
         <v>485</v>
       </c>
-      <c r="TX12" s="5">
+      <c r="TX30" s="5">
         <v>510.3</v>
       </c>
-      <c r="TY12" s="5">
+      <c r="TY30" s="5">
         <v>522.9</v>
       </c>
-      <c r="TZ12" s="5">
-        <v>514.7</v>
-      </c>
-      <c r="UA12" s="5">
+      <c r="TZ30" s="5">
+        <v>514.70000000000005</v>
+      </c>
+      <c r="UA30" s="5">
         <v>529.9</v>
       </c>
-      <c r="UB12" s="5">
+      <c r="UB30" s="5">
         <v>504.3</v>
       </c>
-      <c r="UC12" s="6">
+      <c r="UC30" s="6">
         <v>526</v>
       </c>
-      <c r="UD12" s="5">
+      <c r="UD30" s="5">
         <v>506.1</v>
       </c>
-      <c r="UE12" s="5">
+      <c r="UE30" s="5">
         <v>488.3</v>
       </c>
-      <c r="UF12" s="5">
+      <c r="UF30" s="5">
         <v>495.4</v>
       </c>
-      <c r="UG12" s="5">
+      <c r="UG30" s="5">
         <v>471.9</v>
       </c>
-      <c r="UH12" s="6">
+      <c r="UH30" s="6">
         <v>482</v>
       </c>
-      <c r="UI12" s="5">
+      <c r="UI30" s="5">
         <v>397.4</v>
       </c>
-      <c r="UJ12" s="6">
+      <c r="UJ30" s="6">
         <v>459</v>
       </c>
-      <c r="UK12" s="6">
+      <c r="UK30" s="6">
         <v>456</v>
       </c>
-      <c r="UL12" s="5">
+      <c r="UL30" s="5">
         <v>432.5</v>
       </c>
-      <c r="UM12" s="5">
+      <c r="UM30" s="5">
         <v>455.1</v>
       </c>
-      <c r="UN12" s="5">
+      <c r="UN30" s="5">
         <v>431.1</v>
       </c>
-      <c r="UO12" s="5">
+      <c r="UO30" s="5">
         <v>437.4</v>
       </c>
-      <c r="UP12" s="5">
+      <c r="UP30" s="5">
         <v>440.8</v>
       </c>
-      <c r="UQ12" s="5">
+      <c r="UQ30" s="5">
         <v>428.7</v>
       </c>
-      <c r="UR12" s="6">
+      <c r="UR30" s="6">
         <v>443</v>
       </c>
-      <c r="US12" s="5">
+      <c r="US30" s="5">
         <v>420.9</v>
       </c>
-      <c r="UT12" s="5">
+      <c r="UT30" s="5">
         <v>421.6</v>
       </c>
-      <c r="UU12" s="5">
+      <c r="UU30" s="5">
         <v>343.4</v>
       </c>
-      <c r="UV12" s="5">
+      <c r="UV30" s="5">
         <v>404.2</v>
       </c>
-      <c r="UW12" s="5">
+      <c r="UW30" s="5">
         <v>394.4</v>
       </c>
-      <c r="UX12" s="5">
+      <c r="UX30" s="5">
         <v>401.6</v>
       </c>
-      <c r="UY12" s="5">
+      <c r="UY30" s="5">
         <v>402.4</v>
       </c>
-      <c r="UZ12" s="5">
+      <c r="UZ30" s="5">
         <v>396.8</v>
       </c>
-      <c r="VA12" s="5">
+      <c r="VA30" s="5">
         <v>402.8</v>
       </c>
-      <c r="VB12" s="5">
+      <c r="VB30" s="5">
         <v>396.9</v>
       </c>
-      <c r="VC12" s="6">
+      <c r="VC30" s="6">
         <v>382</v>
       </c>
-      <c r="VD12" s="5">
+      <c r="VD30" s="5">
         <v>388.6</v>
       </c>
-      <c r="VE12" s="5">
+      <c r="VE30" s="5">
         <v>374.5</v>
       </c>
-      <c r="VF12" s="5">
+      <c r="VF30" s="5">
         <v>381.2</v>
       </c>
-      <c r="VG12" s="5">
+      <c r="VG30" s="5">
         <v>332.3</v>
       </c>
-      <c r="VH12" s="5">
+      <c r="VH30" s="5">
         <v>351.4</v>
       </c>
-      <c r="VI12" s="5">
+      <c r="VI30" s="5">
         <v>362.3</v>
       </c>
-      <c r="VJ12" s="5">
+      <c r="VJ30" s="5">
         <v>345.6</v>
       </c>
-      <c r="VK12" s="5">
+      <c r="VK30" s="5">
         <v>368.5</v>
       </c>
-      <c r="VL12" s="5">
+      <c r="VL30" s="5">
         <v>359.1</v>
       </c>
-      <c r="VM12" s="6">
+      <c r="VM30" s="6">
         <v>363</v>
       </c>
-      <c r="VN12" s="5">
+      <c r="VN30" s="5">
         <v>359.7</v>
       </c>
-      <c r="VO12" s="5">
+      <c r="VO30" s="5">
         <v>343.3</v>
       </c>
-      <c r="VP12" s="5">
+      <c r="VP30" s="5">
         <v>351.4</v>
       </c>
-      <c r="VQ12" s="5">
+      <c r="VQ30" s="5">
         <v>348.6</v>
       </c>
-      <c r="VR12" s="5">
+      <c r="VR30" s="5">
         <v>342.8</v>
       </c>
-      <c r="VS12" s="5">
-        <v>289.6</v>
-      </c>
-      <c r="VT12" s="5">
+      <c r="VS30" s="5">
+        <v>289.60000000000002</v>
+      </c>
+      <c r="VT30" s="5">
         <v>341.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>616</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>